--- a/Epsilon_Inversion/EpsilonRegression.xlsx
+++ b/Epsilon_Inversion/EpsilonRegression.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahcshi/Documents/GitHub/PyIRoGlass/EPSILONINVERSION_FINAL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahshi/Documents/GitHub/PyIRoGlass/Epsilon_Inversion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B26151-4F07-E041-ADF1-282450075D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A721BE-5C98-4D4F-88F1-C37C0CF2175D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36940" yWindow="500" windowWidth="23760" windowHeight="20800" activeTab="3" xr2:uid="{FEE6C955-F107-534A-8F98-4BC8B7F4190E}"/>
+    <workbookView xWindow="5760" yWindow="760" windowWidth="23760" windowHeight="20800" activeTab="3" xr2:uid="{FEE6C955-F107-534A-8F98-4BC8B7F4190E}"/>
   </bookViews>
   <sheets>
     <sheet name="NIRRegress" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="219">
   <si>
     <t>Compilation</t>
   </si>
@@ -830,6 +829,21 @@
   </si>
   <si>
     <t>Analytical Method</t>
+  </si>
+  <si>
+    <t>Eta</t>
+  </si>
+  <si>
+    <t>Brounce</t>
+  </si>
+  <si>
+    <t>Brounce et al., 2021</t>
+  </si>
+  <si>
+    <t>Boninite</t>
+  </si>
+  <si>
+    <t>Karl Fischer Titration, IR Spectroscopy, Elemental Analyzer</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1078,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1351,14 +1365,15 @@
     <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14877,10 +14892,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F3C50D-B1DF-E247-95AB-3AD4B1033E27}">
-  <dimension ref="A1:BU33"/>
+  <dimension ref="A1:BU34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AE20" sqref="AE20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14907,10 +14922,10 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="6" t="s">
@@ -14919,7 +14934,7 @@
       <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="5" t="s">
@@ -14934,16 +14949,16 @@
       <c r="O1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>71</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="T1" s="6" t="s">
@@ -14961,7 +14976,7 @@
       <c r="X1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="7" t="s">
         <v>13</v>
       </c>
       <c r="Z1" s="5" t="s">
@@ -14970,16 +14985,16 @@
       <c r="AA1" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="AC1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="5" t="s">
         <v>20</v>
       </c>
       <c r="AF1" s="6" t="s">
@@ -14991,7 +15006,7 @@
       <c r="AH1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AI1" s="2"/>
+      <c r="AI1" s="24"/>
       <c r="AJ1" s="25" t="s">
         <v>22</v>
       </c>
@@ -15122,41 +15137,41 @@
       <c r="F2" s="10">
         <v>0.58543390193776523</v>
       </c>
-      <c r="G2" s="66">
+      <c r="G2" s="34">
         <v>0.4887569934165874</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="17"/>
+      <c r="K2" s="14"/>
       <c r="L2" s="15"/>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
       <c r="O2" s="18"/>
-      <c r="P2" s="15"/>
+      <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="15"/>
       <c r="T2" s="16"/>
       <c r="U2" s="21"/>
       <c r="V2" s="16"/>
       <c r="W2" s="21"/>
       <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
+      <c r="Y2" s="62"/>
       <c r="Z2" s="15">
         <v>281</v>
       </c>
       <c r="AA2" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="AB2" s="15">
+      <c r="AB2" s="16">
         <v>284</v>
       </c>
       <c r="AC2" s="16">
         <v>5</v>
       </c>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="16">
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="15">
         <v>281</v>
       </c>
       <c r="AF2" s="16">
@@ -15166,7 +15181,7 @@
       <c r="AH2" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="AI2" s="19"/>
+      <c r="AI2" s="56"/>
       <c r="AJ2" s="11">
         <v>46</v>
       </c>
@@ -15293,41 +15308,41 @@
       <c r="F3" s="10">
         <v>0.80524921389779802</v>
       </c>
-      <c r="G3" s="66">
+      <c r="G3" s="34">
         <v>0.84064893748481084</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="17"/>
+      <c r="K3" s="14"/>
       <c r="L3" s="15"/>
       <c r="M3" s="16"/>
       <c r="N3" s="16"/>
       <c r="O3" s="17"/>
-      <c r="P3" s="15"/>
+      <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="15"/>
       <c r="T3" s="16"/>
       <c r="U3" s="21"/>
       <c r="V3" s="16"/>
       <c r="W3" s="21"/>
       <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
+      <c r="Y3" s="62"/>
       <c r="Z3" s="15">
         <v>143</v>
       </c>
       <c r="AA3" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="AB3" s="15">
+      <c r="AB3" s="16">
         <v>207</v>
       </c>
       <c r="AC3" s="16">
         <v>22</v>
       </c>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="16">
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="15">
         <v>143</v>
       </c>
       <c r="AF3" s="16">
@@ -15337,7 +15352,7 @@
       <c r="AH3" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AI3" s="19"/>
+      <c r="AI3" s="56"/>
       <c r="AJ3" s="11">
         <v>68.957142857142856</v>
       </c>
@@ -15464,41 +15479,41 @@
       <c r="F4" s="10">
         <v>0.62028383790642061</v>
       </c>
-      <c r="G4" s="66">
+      <c r="G4" s="34">
         <v>0.26802204287222281</v>
       </c>
-      <c r="H4" s="11"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="17"/>
+      <c r="K4" s="14"/>
       <c r="L4" s="15"/>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
       <c r="O4" s="17"/>
-      <c r="P4" s="15"/>
+      <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="15"/>
       <c r="T4" s="16"/>
       <c r="U4" s="21"/>
       <c r="V4" s="16"/>
       <c r="W4" s="21"/>
       <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
+      <c r="Y4" s="62"/>
       <c r="Z4" s="15">
         <v>375</v>
       </c>
       <c r="AA4" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="AB4" s="15">
+      <c r="AB4" s="16">
         <v>375</v>
       </c>
       <c r="AC4" s="16">
         <v>20</v>
       </c>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="16">
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="15">
         <v>375</v>
       </c>
       <c r="AF4" s="16">
@@ -15508,41 +15523,41 @@
       <c r="AH4" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="AI4" s="19"/>
+      <c r="AI4" s="56"/>
       <c r="AJ4" s="11">
         <v>47.77</v>
       </c>
-      <c r="AK4" s="102">
+      <c r="AK4" s="103">
         <v>0.73</v>
       </c>
-      <c r="AL4" s="102">
+      <c r="AL4" s="103">
         <v>15.83</v>
       </c>
-      <c r="AM4" s="102">
+      <c r="AM4" s="103">
         <v>8.52</v>
       </c>
-      <c r="AN4" s="102">
+      <c r="AN4" s="103">
         <v>0.16</v>
       </c>
-      <c r="AO4" s="102">
+      <c r="AO4" s="103">
         <v>10.76</v>
       </c>
-      <c r="AP4" s="102">
+      <c r="AP4" s="103">
         <v>11.4</v>
       </c>
-      <c r="AQ4" s="102">
+      <c r="AQ4" s="103">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AR4" s="102">
+      <c r="AR4" s="103">
         <v>0.1</v>
       </c>
-      <c r="AS4" s="102"/>
-      <c r="AT4" s="102">
+      <c r="AS4" s="103"/>
+      <c r="AT4" s="103">
         <f>SUM(AJ4:AS4)</f>
         <v>97.57</v>
       </c>
-      <c r="AU4" s="102"/>
-      <c r="AV4" s="102">
+      <c r="AU4" s="103"/>
+      <c r="AV4" s="103">
         <f>(AY4+BA4)/BI4</f>
         <v>0.59817209210889832</v>
       </c>
@@ -15550,86 +15565,86 @@
         <f>BS4/(BS4+BR4)</f>
         <v>0.26744623595991968</v>
       </c>
-      <c r="AX4" s="102"/>
-      <c r="AY4" s="102">
+      <c r="AX4" s="103"/>
+      <c r="AY4" s="103">
         <f>AJ4/60.08</f>
         <v>0.7951065246338217</v>
       </c>
-      <c r="AZ4" s="102">
+      <c r="AZ4" s="103">
         <f>AK4/79.866</f>
         <v>9.1403100192822984E-3</v>
       </c>
-      <c r="BA4" s="102">
+      <c r="BA4" s="103">
         <f>AL4/101.96</f>
         <v>0.15525696351510399</v>
       </c>
-      <c r="BB4" s="102">
+      <c r="BB4" s="103">
         <f>AM4/71.844</f>
         <v>0.11859027893769836</v>
       </c>
-      <c r="BC4" s="102">
+      <c r="BC4" s="103">
         <f>AN4/70.9374</f>
         <v>2.2555097875027845E-3</v>
       </c>
-      <c r="BD4" s="102">
+      <c r="BD4" s="103">
         <f>AO4/40.3044</f>
         <v>0.26696837069898072</v>
       </c>
-      <c r="BE4" s="102">
+      <c r="BE4" s="103">
         <f>AP4/56.0774</f>
         <v>0.20329045212509855</v>
       </c>
-      <c r="BF4" s="102">
+      <c r="BF4" s="103">
         <f>AQ4/61.9789</f>
         <v>3.7109403361466557E-2</v>
       </c>
-      <c r="BG4" s="102">
+      <c r="BG4" s="103">
         <f>AR4/94.2</f>
         <v>1.0615711252653928E-3</v>
       </c>
-      <c r="BH4" s="102">
+      <c r="BH4" s="103">
         <f>AS4/141.9445</f>
         <v>0</v>
       </c>
-      <c r="BI4" s="102">
+      <c r="BI4" s="103">
         <f>SUM(AY4:BH4)</f>
         <v>1.5887793842042204</v>
       </c>
-      <c r="BJ4" s="102"/>
-      <c r="BK4" s="102"/>
-      <c r="BL4" s="102">
+      <c r="BJ4" s="103"/>
+      <c r="BK4" s="103"/>
+      <c r="BL4" s="103">
         <f>AY4</f>
         <v>0.7951065246338217</v>
       </c>
-      <c r="BM4" s="102">
+      <c r="BM4" s="103">
         <f t="shared" ref="BM4:BR4" si="0">AZ4</f>
         <v>9.1403100192822984E-3</v>
       </c>
-      <c r="BN4" s="102">
+      <c r="BN4" s="103">
         <f>BA4*2</f>
         <v>0.31051392703020797</v>
       </c>
-      <c r="BO4" s="102">
+      <c r="BO4" s="103">
         <f t="shared" si="0"/>
         <v>0.11859027893769836</v>
       </c>
-      <c r="BP4" s="102">
+      <c r="BP4" s="103">
         <f t="shared" si="0"/>
         <v>2.2555097875027845E-3</v>
       </c>
-      <c r="BQ4" s="102">
+      <c r="BQ4" s="103">
         <f t="shared" si="0"/>
         <v>0.26696837069898072</v>
       </c>
-      <c r="BR4" s="102">
+      <c r="BR4" s="103">
         <f t="shared" si="0"/>
         <v>0.20329045212509855</v>
       </c>
-      <c r="BS4" s="102">
+      <c r="BS4" s="103">
         <f>BF4*2</f>
         <v>7.4218806722933114E-2</v>
       </c>
-      <c r="BT4" s="102">
+      <c r="BT4" s="103">
         <f>BG4*2</f>
         <v>2.1231422505307855E-3</v>
       </c>
@@ -15657,17 +15672,17 @@
       <c r="F5" s="10">
         <v>0.70799999999999996</v>
       </c>
-      <c r="G5" s="66">
+      <c r="G5" s="34">
         <v>0.50738925282880565</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="12">
         <v>1.25</v>
       </c>
       <c r="I5" s="12">
         <v>0.05</v>
       </c>
       <c r="J5" s="13"/>
-      <c r="K5" s="17">
+      <c r="K5" s="14">
         <v>0.04</v>
       </c>
       <c r="L5" s="15">
@@ -15680,34 +15695,34 @@
       <c r="O5" s="17">
         <v>0.10526315789473685</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="16">
         <v>42</v>
       </c>
       <c r="Q5" s="16">
         <v>2</v>
       </c>
-      <c r="R5" s="18"/>
-      <c r="S5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="15"/>
       <c r="T5" s="16"/>
       <c r="U5" s="21"/>
       <c r="V5" s="16"/>
       <c r="W5" s="21"/>
       <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
+      <c r="Y5" s="62"/>
       <c r="Z5" s="15">
         <v>190</v>
       </c>
       <c r="AA5" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="AB5" s="15">
+      <c r="AB5" s="16">
         <v>180</v>
       </c>
       <c r="AC5" s="16">
         <v>15</v>
       </c>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="16">
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="15">
         <v>190</v>
       </c>
       <c r="AF5" s="16">
@@ -15717,7 +15732,7 @@
       <c r="AH5" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="AI5" s="19"/>
+      <c r="AI5" s="56"/>
       <c r="AJ5" s="11">
         <v>54.55</v>
       </c>
@@ -15844,21 +15859,21 @@
       <c r="F6" s="10">
         <v>0.64545647626617619</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="34">
         <v>0.24463806860177423</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="17"/>
+      <c r="K6" s="14"/>
       <c r="L6" s="15"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
       <c r="O6" s="17"/>
-      <c r="P6" s="15"/>
+      <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="16">
+      <c r="R6" s="16"/>
+      <c r="S6" s="15">
         <v>78</v>
       </c>
       <c r="T6" s="16"/>
@@ -15868,21 +15883,21 @@
       <c r="X6" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="Y6" s="21"/>
+      <c r="Y6" s="62"/>
       <c r="Z6" s="15">
         <v>398</v>
       </c>
       <c r="AA6" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="AB6" s="15">
+      <c r="AB6" s="16">
         <v>398</v>
       </c>
       <c r="AC6" s="16">
         <v>10</v>
       </c>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="16">
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="15">
         <v>398</v>
       </c>
       <c r="AF6" s="16">
@@ -15892,7 +15907,7 @@
       <c r="AH6" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="AI6" s="19"/>
+      <c r="AI6" s="56"/>
       <c r="AJ6" s="11">
         <v>51.839999999999996</v>
       </c>
@@ -16019,17 +16034,17 @@
       <c r="F7" s="10">
         <v>0.66378339566542666</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="34">
         <v>0.27655660483015931</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="16">
         <v>0.65</v>
       </c>
       <c r="I7" s="16">
         <v>0.08</v>
       </c>
       <c r="J7" s="13"/>
-      <c r="K7" s="17">
+      <c r="K7" s="14">
         <v>0.12307692307692307</v>
       </c>
       <c r="L7" s="15">
@@ -16042,10 +16057,10 @@
       <c r="O7" s="17">
         <v>0.11594202898550726</v>
       </c>
-      <c r="P7" s="15"/>
+      <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="16">
+      <c r="R7" s="16"/>
+      <c r="S7" s="15">
         <v>65</v>
       </c>
       <c r="T7" s="16"/>
@@ -16055,21 +16070,21 @@
       <c r="X7" s="21">
         <v>2</v>
       </c>
-      <c r="Y7" s="21"/>
+      <c r="Y7" s="62"/>
       <c r="Z7" s="15">
         <v>317</v>
       </c>
       <c r="AA7" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="AB7" s="15">
+      <c r="AB7" s="16">
         <v>361</v>
       </c>
       <c r="AC7" s="16">
         <v>43</v>
       </c>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="16">
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="15">
         <v>317</v>
       </c>
       <c r="AF7" s="16">
@@ -16079,7 +16094,7 @@
       <c r="AH7" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="AI7" s="19"/>
+      <c r="AI7" s="56"/>
       <c r="AJ7" s="11">
         <v>50.120000000000005</v>
       </c>
@@ -16206,21 +16221,21 @@
       <c r="F8" s="10">
         <v>0.53206676081954596</v>
       </c>
-      <c r="G8" s="66">
+      <c r="G8" s="34">
         <v>0.36103905373641304</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="17"/>
+      <c r="K8" s="14"/>
       <c r="L8" s="15"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
       <c r="O8" s="18"/>
-      <c r="P8" s="15"/>
+      <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="16">
+      <c r="R8" s="16"/>
+      <c r="S8" s="15">
         <v>57.3</v>
       </c>
       <c r="T8" s="16"/>
@@ -16230,21 +16245,21 @@
       <c r="X8" s="21">
         <v>1.8</v>
       </c>
-      <c r="Y8" s="21"/>
+      <c r="Y8" s="62"/>
       <c r="Z8" s="15">
         <v>306</v>
       </c>
       <c r="AA8" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="AB8" s="15">
+      <c r="AB8" s="16">
         <v>349</v>
       </c>
       <c r="AC8" s="16">
         <v>25</v>
       </c>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="16">
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="15">
         <v>306</v>
       </c>
       <c r="AF8" s="16">
@@ -16254,7 +16269,7 @@
       <c r="AH8" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AI8" s="19"/>
+      <c r="AI8" s="56"/>
       <c r="AJ8" s="11">
         <v>43.64</v>
       </c>
@@ -16381,21 +16396,21 @@
       <c r="F9" s="10">
         <v>0.58524831256813492</v>
       </c>
-      <c r="G9" s="66">
+      <c r="G9" s="34">
         <v>0.39124475074304188</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="17"/>
+      <c r="K9" s="14"/>
       <c r="L9" s="15"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
       <c r="O9" s="18"/>
-      <c r="P9" s="15"/>
+      <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="16">
+      <c r="R9" s="16"/>
+      <c r="S9" s="15">
         <v>60.5</v>
       </c>
       <c r="T9" s="16"/>
@@ -16405,21 +16420,21 @@
       <c r="X9" s="21">
         <v>3.3</v>
       </c>
-      <c r="Y9" s="21"/>
+      <c r="Y9" s="62"/>
       <c r="Z9" s="15">
         <v>311</v>
       </c>
       <c r="AA9" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="AB9" s="15">
+      <c r="AB9" s="16">
         <v>380</v>
       </c>
       <c r="AC9" s="16">
         <v>30</v>
       </c>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="16">
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="15">
         <v>311</v>
       </c>
       <c r="AF9" s="16">
@@ -16429,7 +16444,7 @@
       <c r="AH9" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AI9" s="19"/>
+      <c r="AI9" s="56"/>
       <c r="AJ9" s="11">
         <v>47.3</v>
       </c>
@@ -16556,41 +16571,41 @@
       <c r="F10" s="10">
         <v>0.62363736213765231</v>
       </c>
-      <c r="G10" s="66">
+      <c r="G10" s="34">
         <v>0.30280441831693838</v>
       </c>
-      <c r="H10" s="11"/>
+      <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="17"/>
+      <c r="K10" s="14"/>
       <c r="L10" s="15"/>
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
       <c r="O10" s="17"/>
-      <c r="P10" s="15"/>
+      <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="15"/>
       <c r="T10" s="16"/>
       <c r="U10" s="21"/>
       <c r="V10" s="16"/>
       <c r="W10" s="21"/>
       <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
+      <c r="Y10" s="62"/>
       <c r="Z10" s="15">
         <v>329</v>
       </c>
       <c r="AA10" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="AB10" s="15">
+      <c r="AB10" s="16">
         <v>372</v>
       </c>
       <c r="AC10" s="16">
         <v>14</v>
       </c>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="16">
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="15">
         <v>329</v>
       </c>
       <c r="AF10" s="16">
@@ -16600,7 +16615,7 @@
       <c r="AH10" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AI10" s="19"/>
+      <c r="AI10" s="56"/>
       <c r="AJ10" s="11">
         <v>48.88</v>
       </c>
@@ -16727,41 +16742,41 @@
       <c r="F11" s="10">
         <v>0.62560475030354845</v>
       </c>
-      <c r="G11" s="66">
+      <c r="G11" s="34">
         <v>0.36701862247339523</v>
       </c>
-      <c r="H11" s="11"/>
+      <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="17"/>
+      <c r="K11" s="14"/>
       <c r="L11" s="15"/>
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
       <c r="O11" s="17"/>
-      <c r="P11" s="15"/>
+      <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="15"/>
       <c r="T11" s="16"/>
       <c r="U11" s="21"/>
       <c r="V11" s="16"/>
       <c r="W11" s="21"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
+      <c r="Y11" s="62"/>
       <c r="Z11" s="15">
         <v>360</v>
       </c>
       <c r="AA11" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="AB11" s="15">
+      <c r="AB11" s="16">
         <v>394</v>
       </c>
       <c r="AC11" s="16">
         <v>27</v>
       </c>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="16">
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="15">
         <v>360</v>
       </c>
       <c r="AF11" s="16">
@@ -16771,7 +16786,7 @@
       <c r="AH11" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AI11" s="19"/>
+      <c r="AI11" s="56"/>
       <c r="AJ11" s="11">
         <v>48.34</v>
       </c>
@@ -16898,41 +16913,41 @@
       <c r="F12" s="10">
         <v>0.63621395654255564</v>
       </c>
-      <c r="G12" s="66">
+      <c r="G12" s="34">
         <v>0.36694941616020388</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="12"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="17"/>
+      <c r="K12" s="14"/>
       <c r="L12" s="15"/>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
       <c r="O12" s="17"/>
-      <c r="P12" s="15"/>
+      <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="15"/>
       <c r="T12" s="16"/>
       <c r="U12" s="21"/>
       <c r="V12" s="16"/>
       <c r="W12" s="21"/>
       <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
+      <c r="Y12" s="62"/>
       <c r="Z12" s="15">
         <v>341</v>
       </c>
       <c r="AA12" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="AB12" s="15">
+      <c r="AB12" s="16">
         <v>385</v>
       </c>
       <c r="AC12" s="16">
         <v>18</v>
       </c>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="16">
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="15">
         <v>341</v>
       </c>
       <c r="AF12" s="16">
@@ -16942,7 +16957,7 @@
       <c r="AH12" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AI12" s="19"/>
+      <c r="AI12" s="56"/>
       <c r="AJ12" s="11">
         <v>49.03</v>
       </c>
@@ -17069,41 +17084,41 @@
       <c r="F13" s="10">
         <v>0.65303565903143468</v>
       </c>
-      <c r="G13" s="66">
+      <c r="G13" s="34">
         <v>0.27545460605486499</v>
       </c>
-      <c r="H13" s="11"/>
+      <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="17"/>
+      <c r="K13" s="14"/>
       <c r="L13" s="15"/>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
       <c r="O13" s="17"/>
-      <c r="P13" s="15"/>
+      <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="15"/>
       <c r="T13" s="16"/>
       <c r="U13" s="21"/>
       <c r="V13" s="16"/>
       <c r="W13" s="21"/>
       <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
+      <c r="Y13" s="62"/>
       <c r="Z13" s="15">
         <v>306</v>
       </c>
       <c r="AA13" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="AB13" s="15">
+      <c r="AB13" s="16">
         <v>359</v>
       </c>
       <c r="AC13" s="16">
         <v>25</v>
       </c>
-      <c r="AD13" s="18"/>
-      <c r="AE13" s="16">
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="15">
         <v>306</v>
       </c>
       <c r="AF13" s="16">
@@ -17113,7 +17128,7 @@
       <c r="AH13" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AI13" s="19"/>
+      <c r="AI13" s="56"/>
       <c r="AJ13" s="11">
         <v>50.69</v>
       </c>
@@ -17240,45 +17255,45 @@
       <c r="F14" s="10">
         <v>0.54093998787268649</v>
       </c>
-      <c r="G14" s="66">
+      <c r="G14" s="34">
         <v>0.28825402128623334</v>
       </c>
-      <c r="H14" s="11"/>
+      <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="17"/>
+      <c r="K14" s="14"/>
       <c r="L14" s="15"/>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
       <c r="O14" s="18"/>
-      <c r="P14" s="15"/>
+      <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="20"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="105"/>
       <c r="T14" s="16"/>
       <c r="U14" s="21"/>
       <c r="V14" s="16"/>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
+      <c r="Y14" s="62"/>
       <c r="Z14" s="15">
         <v>355</v>
       </c>
       <c r="AA14" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="AB14" s="15">
+      <c r="AB14" s="16">
         <v>355</v>
       </c>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="16">
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="15">
         <v>355</v>
       </c>
       <c r="AF14" s="16"/>
       <c r="AG14" s="18"/>
       <c r="AH14" s="19"/>
-      <c r="AI14" s="19"/>
+      <c r="AI14" s="56"/>
       <c r="AJ14" s="11">
         <v>44.11</v>
       </c>
@@ -17405,17 +17420,17 @@
       <c r="F15" s="10">
         <v>0.65864804931274756</v>
       </c>
-      <c r="G15" s="66">
+      <c r="G15" s="34">
         <v>0.43837596574883414</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="12">
         <v>1.03</v>
       </c>
       <c r="I15" s="12">
         <v>0.03</v>
       </c>
       <c r="J15" s="13"/>
-      <c r="K15" s="17">
+      <c r="K15" s="14">
         <v>2.9126213592233007E-2</v>
       </c>
       <c r="L15" s="15">
@@ -17428,26 +17443,26 @@
       <c r="O15" s="17">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="P15" s="15"/>
+      <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="15"/>
       <c r="T15" s="16"/>
       <c r="U15" s="21"/>
       <c r="V15" s="16"/>
       <c r="W15" s="21"/>
       <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
+      <c r="Y15" s="62"/>
       <c r="Z15" s="15">
         <v>356</v>
       </c>
       <c r="AA15" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="AB15" s="15"/>
+      <c r="AB15" s="16"/>
       <c r="AC15" s="16"/>
-      <c r="AD15" s="18"/>
-      <c r="AE15" s="16">
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="15">
         <v>356</v>
       </c>
       <c r="AF15" s="16">
@@ -17455,7 +17470,7 @@
       </c>
       <c r="AG15" s="18"/>
       <c r="AH15" s="19"/>
-      <c r="AI15" s="19"/>
+      <c r="AI15" s="56"/>
       <c r="AJ15" s="11">
         <v>53.47</v>
       </c>
@@ -17580,37 +17595,37 @@
       <c r="F16" s="10">
         <v>0.60751412905558377</v>
       </c>
-      <c r="G16" s="66">
+      <c r="G16" s="34">
         <v>0.53685578640295406</v>
       </c>
-      <c r="H16" s="11"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="17"/>
+      <c r="K16" s="14"/>
       <c r="L16" s="15"/>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
       <c r="O16" s="17"/>
-      <c r="P16" s="15"/>
+      <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="15"/>
       <c r="T16" s="16"/>
       <c r="U16" s="21"/>
       <c r="V16" s="16"/>
       <c r="W16" s="21"/>
       <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
+      <c r="Y16" s="62"/>
       <c r="Z16" s="15">
         <v>264</v>
       </c>
       <c r="AA16" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="AB16" s="15"/>
+      <c r="AB16" s="16"/>
       <c r="AC16" s="16"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="16">
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="15">
         <v>264</v>
       </c>
       <c r="AF16" s="16">
@@ -17620,7 +17635,7 @@
       <c r="AH16" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AI16" s="19"/>
+      <c r="AI16" s="56"/>
       <c r="AJ16" s="11">
         <v>50.99</v>
       </c>
@@ -17745,37 +17760,37 @@
       <c r="F17" s="10">
         <v>0.61246849011068027</v>
       </c>
-      <c r="G17" s="66">
+      <c r="G17" s="34">
         <v>0.42411331623924359</v>
       </c>
-      <c r="H17" s="11"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="17"/>
+      <c r="K17" s="14"/>
       <c r="L17" s="15"/>
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
       <c r="O17" s="17"/>
-      <c r="P17" s="15"/>
+      <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="15"/>
       <c r="T17" s="16"/>
       <c r="U17" s="21"/>
       <c r="V17" s="16"/>
       <c r="W17" s="21"/>
       <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
+      <c r="Y17" s="62"/>
       <c r="Z17" s="15">
         <v>244</v>
       </c>
       <c r="AA17" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="AB17" s="15"/>
+      <c r="AB17" s="16"/>
       <c r="AC17" s="16"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="16">
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="15">
         <v>244</v>
       </c>
       <c r="AF17" s="16">
@@ -17785,7 +17800,7 @@
       <c r="AH17" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AI17" s="19"/>
+      <c r="AI17" s="56"/>
       <c r="AJ17" s="11">
         <v>49.65</v>
       </c>
@@ -17910,37 +17925,37 @@
       <c r="F18" s="10">
         <v>0.62241376582004049</v>
       </c>
-      <c r="G18" s="66">
+      <c r="G18" s="34">
         <v>0.23689820110221482</v>
       </c>
-      <c r="H18" s="11"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="13"/>
-      <c r="K18" s="17"/>
+      <c r="K18" s="14"/>
       <c r="L18" s="15"/>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
       <c r="O18" s="17"/>
-      <c r="P18" s="15"/>
+      <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="15"/>
       <c r="T18" s="16"/>
       <c r="U18" s="21"/>
       <c r="V18" s="16"/>
       <c r="W18" s="21"/>
       <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
+      <c r="Y18" s="62"/>
       <c r="Z18" s="15">
         <v>294</v>
       </c>
       <c r="AA18" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="AB18" s="15"/>
+      <c r="AB18" s="16"/>
       <c r="AC18" s="16"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="16">
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="15">
         <v>294</v>
       </c>
       <c r="AF18" s="16">
@@ -17950,7 +17965,7 @@
       <c r="AH18" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AI18" s="19"/>
+      <c r="AI18" s="56"/>
       <c r="AJ18" s="11">
         <v>49.89</v>
       </c>
@@ -18056,66 +18071,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:73" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="74" t="s">
+    <row r="19" spans="1:73" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D19" s="72" t="s">
+      <c r="D19" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="71" t="s">
+      <c r="E19" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="51">
+      <c r="F19" s="10">
         <v>0.72238014935670858</v>
       </c>
-      <c r="G19" s="70">
+      <c r="G19" s="34">
         <v>0.59026644831546593</v>
       </c>
-      <c r="H19" s="69"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="68"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="68"/>
-      <c r="X19" s="68"/>
-      <c r="Y19" s="68"/>
-      <c r="Z19" s="45">
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="15">
         <v>215</v>
       </c>
-      <c r="AA19" s="99" t="s">
+      <c r="AA19" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="AB19" s="45"/>
-      <c r="AC19" s="44"/>
-      <c r="AD19" s="46"/>
-      <c r="AE19" s="44">
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="15">
         <v>215</v>
       </c>
-      <c r="AF19" s="44">
+      <c r="AF19" s="16">
         <v>8</v>
       </c>
-      <c r="AG19" s="46"/>
-      <c r="AH19" s="43" t="s">
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="AI19" s="43"/>
+      <c r="AI19" s="56"/>
       <c r="AJ19" s="11">
         <v>58.29</v>
       </c>
@@ -18221,1177 +18236,1087 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:73" s="96" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A20" s="93" t="s">
+    <row r="20" spans="1:73" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="74" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="F20" s="51">
+        <v>0.64269948715330805</v>
+      </c>
+      <c r="G20" s="50">
+        <v>0.263039725111406</v>
+      </c>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="99"/>
+      <c r="Z20" s="45">
+        <v>265</v>
+      </c>
+      <c r="AA20" s="99" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="45">
+        <v>265</v>
+      </c>
+      <c r="AF20" s="44">
+        <v>30</v>
+      </c>
+      <c r="AG20" s="46"/>
+      <c r="AH20" s="42"/>
+      <c r="AI20" s="42"/>
+      <c r="AJ20" s="69"/>
+      <c r="AK20" s="41"/>
+      <c r="AL20" s="41"/>
+      <c r="AM20" s="41"/>
+      <c r="AN20" s="41"/>
+      <c r="AO20" s="41"/>
+      <c r="AP20" s="41"/>
+      <c r="AQ20" s="41"/>
+      <c r="AR20" s="41"/>
+      <c r="AS20" s="41"/>
+      <c r="AT20" s="41"/>
+      <c r="AU20" s="41"/>
+      <c r="AV20" s="41"/>
+      <c r="AW20" s="41"/>
+      <c r="AX20" s="41"/>
+      <c r="AY20" s="41"/>
+      <c r="AZ20" s="41"/>
+      <c r="BA20" s="41"/>
+      <c r="BB20" s="41"/>
+      <c r="BC20" s="41"/>
+      <c r="BD20" s="41"/>
+      <c r="BE20" s="41"/>
+      <c r="BF20" s="41"/>
+      <c r="BG20" s="41"/>
+      <c r="BH20" s="41"/>
+      <c r="BI20" s="41"/>
+      <c r="BJ20" s="41"/>
+      <c r="BK20" s="41"/>
+      <c r="BL20" s="41"/>
+      <c r="BM20" s="41"/>
+      <c r="BN20" s="41"/>
+      <c r="BO20" s="41"/>
+      <c r="BP20" s="41"/>
+      <c r="BQ20" s="41"/>
+      <c r="BR20" s="41"/>
+      <c r="BS20" s="41"/>
+      <c r="BT20" s="41"/>
+      <c r="BU20" s="40"/>
+    </row>
+    <row r="21" spans="1:73" s="96" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A21" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="100" t="s">
+      <c r="B21" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="101" t="s">
+      <c r="C21" s="101" t="s">
         <v>128</v>
       </c>
-      <c r="D20" s="101" t="s">
+      <c r="D21" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="94" t="s">
+      <c r="E21" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="66">
+      <c r="F21" s="10">
         <v>0.622</v>
       </c>
-      <c r="G20" s="66">
+      <c r="G21" s="34">
         <v>0.23157895182099122</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H21" s="12">
         <v>1.02</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I21" s="12">
         <v>0.03</v>
       </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="12">
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="11">
         <v>0.62</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M21" s="12">
         <v>0.06</v>
       </c>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="12">
+      <c r="N21" s="12"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="11">
         <v>63.9</v>
       </c>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12">
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12">
         <v>5.4</v>
       </c>
-      <c r="Y20" s="102"/>
-      <c r="Z20" s="97">
+      <c r="Y21" s="67"/>
+      <c r="Z21" s="97">
         <v>308</v>
       </c>
-      <c r="AA20" s="67" t="s">
+      <c r="AA21" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="AB20" s="97">
+      <c r="AB21" s="13">
         <v>308</v>
       </c>
-      <c r="AC20" s="13">
+      <c r="AC21" s="13">
         <v>110</v>
       </c>
-      <c r="AD20" s="35"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="35"/>
-      <c r="AH20" s="103" t="s">
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="102" t="s">
         <v>127</v>
       </c>
-      <c r="AI20" s="103"/>
-      <c r="AJ20" s="95">
+      <c r="AI21" s="102"/>
+      <c r="AJ21" s="95">
         <v>47.645000000000003</v>
       </c>
-      <c r="AK20" s="102">
+      <c r="AK21" s="103">
         <v>0.85750000000000004</v>
       </c>
-      <c r="AL20" s="102">
+      <c r="AL21" s="103">
         <v>14.969999999999999</v>
       </c>
-      <c r="AM20" s="102">
+      <c r="AM21" s="103">
         <v>7.1875</v>
       </c>
-      <c r="AN20" s="102">
+      <c r="AN21" s="103">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="AO20" s="102">
+      <c r="AO21" s="103">
         <v>5.4974999999999996</v>
       </c>
-      <c r="AP20" s="102">
+      <c r="AP21" s="103">
         <v>10.82</v>
       </c>
-      <c r="AQ20" s="102">
+      <c r="AQ21" s="103">
         <v>1.7949999999999999</v>
       </c>
-      <c r="AR20" s="102">
+      <c r="AR21" s="103">
         <v>6.902499999999999</v>
       </c>
-      <c r="AS20" s="102">
+      <c r="AS21" s="103">
         <v>0.5</v>
       </c>
-      <c r="AT20" s="102">
+      <c r="AT21" s="103">
         <v>96.24</v>
       </c>
-      <c r="AU20" s="102"/>
-      <c r="AV20" s="102">
+      <c r="AU21" s="103"/>
+      <c r="AV21" s="103">
         <v>0.62682687850579211</v>
       </c>
-      <c r="AW20" s="102">
+      <c r="AW21" s="103">
         <v>0.23157895182099122</v>
       </c>
-      <c r="AX20" s="102"/>
-      <c r="AY20" s="102">
+      <c r="AX21" s="103"/>
+      <c r="AY21" s="103">
         <v>0.79289399234481606</v>
       </c>
-      <c r="AZ20" s="102">
+      <c r="AZ21" s="103">
         <v>1.0732165206508135E-2</v>
       </c>
-      <c r="BA20" s="102">
+      <c r="BA21" s="103">
         <v>0.14682228324833269</v>
       </c>
-      <c r="BB20" s="102">
+      <c r="BB21" s="103">
         <v>0.10003479471120391</v>
       </c>
-      <c r="BC20" s="102">
+      <c r="BC21" s="103">
         <v>9.1626726811389915E-4</v>
       </c>
-      <c r="BD20" s="102">
+      <c r="BD21" s="103">
         <v>0.13638055073182834</v>
       </c>
-      <c r="BE20" s="102">
+      <c r="BE21" s="103">
         <v>0.19293865905848787</v>
       </c>
-      <c r="BF20" s="102">
+      <c r="BF21" s="103">
         <v>2.9045307443365698E-2</v>
       </c>
-      <c r="BG20" s="102">
+      <c r="BG21" s="103">
         <v>7.3274946921443734E-2</v>
       </c>
-      <c r="BH20" s="102">
+      <c r="BH21" s="103">
         <v>8.8059175766114835E-4</v>
       </c>
-      <c r="BI20" s="102">
+      <c r="BI21" s="103">
         <v>1.4839195586917615</v>
       </c>
-      <c r="BJ20" s="102"/>
-      <c r="BK20" s="102"/>
-      <c r="BL20" s="102">
+      <c r="BJ21" s="103"/>
+      <c r="BK21" s="103"/>
+      <c r="BL21" s="103">
         <v>0.79289399234481606</v>
       </c>
-      <c r="BM20" s="102">
+      <c r="BM21" s="103">
         <v>1.0732165206508135E-2</v>
       </c>
-      <c r="BN20" s="102">
+      <c r="BN21" s="103">
         <v>0.29364456649666537</v>
       </c>
-      <c r="BO20" s="102">
+      <c r="BO21" s="103">
         <v>0.10003479471120391</v>
       </c>
-      <c r="BP20" s="102">
+      <c r="BP21" s="103">
         <v>9.1626726811389915E-4</v>
       </c>
-      <c r="BQ20" s="102">
+      <c r="BQ21" s="103">
         <v>0.13638055073182834</v>
       </c>
-      <c r="BR20" s="102">
+      <c r="BR21" s="103">
         <v>0.19293865905848787</v>
       </c>
-      <c r="BS20" s="102">
+      <c r="BS21" s="103">
         <v>5.8090614886731395E-2</v>
       </c>
-      <c r="BT20" s="102">
+      <c r="BT21" s="103">
         <v>0.14654989384288747</v>
       </c>
-      <c r="BU20" s="67">
+      <c r="BU21" s="67">
         <v>1.7611835153222967E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:73" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="F21" s="10">
-        <v>0.62028383790642061</v>
-      </c>
-      <c r="G21" s="66">
-        <v>0.26802204287222281</v>
-      </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="15">
-        <v>284</v>
-      </c>
-      <c r="AA21" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB21" s="16">
-        <v>284</v>
-      </c>
-      <c r="AC21" s="16">
-        <v>5</v>
-      </c>
-      <c r="AD21" s="16"/>
-      <c r="AE21" s="15">
-        <v>281</v>
-      </c>
-      <c r="AF21" s="16">
-        <v>6</v>
-      </c>
-      <c r="AG21" s="18"/>
-      <c r="AH21" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="AI21" s="19"/>
-      <c r="AJ21" s="11">
-        <v>46</v>
-      </c>
-      <c r="AK21" s="12">
-        <v>3.17</v>
-      </c>
-      <c r="AL21" s="12">
-        <v>15.2</v>
-      </c>
-      <c r="AM21" s="12">
-        <v>12</v>
-      </c>
-      <c r="AN21" s="12">
-        <v>0.23</v>
-      </c>
-      <c r="AO21" s="12">
-        <v>9.06</v>
-      </c>
-      <c r="AP21" s="12">
-        <v>8.2200000000000006</v>
-      </c>
-      <c r="AQ21" s="12">
-        <v>4.33</v>
-      </c>
-      <c r="AR21" s="12">
-        <v>1.32</v>
-      </c>
-      <c r="AS21" s="12">
-        <v>0.27</v>
-      </c>
-      <c r="AT21" s="12">
-        <v>99.8</v>
-      </c>
-      <c r="AU21" s="12"/>
-      <c r="AV21" s="12">
-        <v>0.58543390193776523</v>
-      </c>
-      <c r="AW21" s="12">
-        <v>0.4887569934165874</v>
-      </c>
-      <c r="AX21" s="12"/>
-      <c r="AY21" s="12">
-        <v>0.76551838908304204</v>
-      </c>
-      <c r="AZ21" s="12">
-        <v>3.9674593241551939E-2</v>
-      </c>
-      <c r="BA21" s="12">
-        <v>0.14907806983130639</v>
-      </c>
-      <c r="BB21" s="12">
-        <v>0.16701461377870566</v>
-      </c>
-      <c r="BC21" s="12">
-        <v>3.2421764871722585E-3</v>
-      </c>
-      <c r="BD21" s="12">
-        <v>0.22475812453485489</v>
-      </c>
-      <c r="BE21" s="12">
-        <v>0.14657631954350928</v>
-      </c>
-      <c r="BF21" s="12">
-        <v>7.0064724919093851E-2</v>
-      </c>
-      <c r="BG21" s="12">
-        <v>1.4012738853503185E-2</v>
-      </c>
-      <c r="BH21" s="12">
-        <v>1.9020781965480805E-3</v>
-      </c>
-      <c r="BI21" s="12">
-        <v>1.5799397502727393</v>
-      </c>
-      <c r="BJ21" s="12"/>
-      <c r="BK21" s="12"/>
-      <c r="BL21" s="12">
-        <v>0.76551838908304204</v>
-      </c>
-      <c r="BM21" s="12">
-        <v>3.9674593241551939E-2</v>
-      </c>
-      <c r="BN21" s="12">
-        <v>0.29815613966261278</v>
-      </c>
-      <c r="BO21" s="12">
-        <v>0.16701461377870566</v>
-      </c>
-      <c r="BP21" s="12">
-        <v>3.2421764871722585E-3</v>
-      </c>
-      <c r="BQ21" s="12">
-        <v>0.22475812453485489</v>
-      </c>
-      <c r="BR21" s="12">
-        <v>0.14657631954350928</v>
-      </c>
-      <c r="BS21" s="12">
-        <v>0.1401294498381877</v>
-      </c>
-      <c r="BT21" s="12">
-        <v>2.802547770700637E-2</v>
-      </c>
-      <c r="BU21" s="35">
-        <v>3.804156393096161E-3</v>
       </c>
     </row>
     <row r="22" spans="1:73" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="F22" s="10">
-        <v>0.80524921389779802</v>
-      </c>
-      <c r="G22" s="66">
-        <v>0.84064893748481084</v>
-      </c>
-      <c r="H22" s="11"/>
+        <v>0.62028383790642061</v>
+      </c>
+      <c r="G22" s="34">
+        <v>0.26802204287222281</v>
+      </c>
+      <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="13"/>
-      <c r="K22" s="17"/>
+      <c r="K22" s="14"/>
       <c r="L22" s="15"/>
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="15"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="16"/>
       <c r="Q22" s="16"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="15"/>
       <c r="T22" s="16"/>
       <c r="U22" s="21"/>
       <c r="V22" s="16"/>
       <c r="W22" s="21"/>
       <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
+      <c r="Y22" s="62"/>
       <c r="Z22" s="15">
-        <v>207</v>
+        <v>284</v>
       </c>
       <c r="AA22" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AB22" s="16">
-        <v>207</v>
+        <v>284</v>
       </c>
       <c r="AC22" s="16">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="AD22" s="16"/>
       <c r="AE22" s="15">
-        <v>143</v>
+        <v>281</v>
       </c>
       <c r="AF22" s="16">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AG22" s="18"/>
       <c r="AH22" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI22" s="19"/>
+        <v>142</v>
+      </c>
+      <c r="AI22" s="56"/>
       <c r="AJ22" s="11">
-        <v>68.957142857142856</v>
+        <v>46</v>
       </c>
       <c r="AK22" s="12">
-        <v>0.5</v>
+        <v>3.17</v>
       </c>
       <c r="AL22" s="12">
-        <v>15.760000000000002</v>
+        <v>15.2</v>
       </c>
       <c r="AM22" s="12">
-        <v>0.93571428571428583</v>
+        <v>12</v>
       </c>
       <c r="AN22" s="12">
-        <v>0.49285714285714288</v>
+        <v>0.23</v>
       </c>
       <c r="AO22" s="12">
-        <v>0.24571428571428572</v>
+        <v>9.06</v>
       </c>
       <c r="AP22" s="12">
-        <v>1.4542857142857142</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="AQ22" s="12">
-        <v>4.2271428571428578</v>
+        <v>4.33</v>
       </c>
       <c r="AR22" s="12">
-        <v>7.3514285714285705</v>
+        <v>1.32</v>
       </c>
       <c r="AS22" s="12">
-        <v>0.28999999999999998</v>
+        <v>0.27</v>
       </c>
       <c r="AT22" s="12">
-        <v>100.21428571428572</v>
+        <v>99.8</v>
       </c>
       <c r="AU22" s="12"/>
       <c r="AV22" s="12">
-        <v>0.80524921389779802</v>
+        <v>0.58543390193776523</v>
       </c>
       <c r="AW22" s="12">
-        <v>0.84064893748481084</v>
+        <v>0.4887569934165874</v>
       </c>
       <c r="AX22" s="12"/>
       <c r="AY22" s="12">
-        <v>1.147564367734113</v>
+        <v>0.76551838908304204</v>
       </c>
       <c r="AZ22" s="12">
-        <v>6.25782227784731E-3</v>
+        <v>3.9674593241551939E-2</v>
       </c>
       <c r="BA22" s="12">
-        <v>0.15457041977245978</v>
+        <v>0.14907806983130639</v>
       </c>
       <c r="BB22" s="12">
-        <v>1.3023163336315738E-2</v>
+        <v>0.16701461377870566</v>
       </c>
       <c r="BC22" s="12">
-        <v>6.9475210439405525E-3</v>
+        <v>3.2421764871722585E-3</v>
       </c>
       <c r="BD22" s="12">
-        <v>6.095616117943084E-3</v>
+        <v>0.22475812453485489</v>
       </c>
       <c r="BE22" s="12">
-        <v>2.5932341552883632E-2</v>
+        <v>0.14657631954350928</v>
       </c>
       <c r="BF22" s="12">
-        <v>6.8400369856680548E-2</v>
+        <v>7.0064724919093851E-2</v>
       </c>
       <c r="BG22" s="12">
-        <v>7.8040643008795874E-2</v>
+        <v>1.4012738853503185E-2</v>
       </c>
       <c r="BH22" s="12">
-        <v>5.8370653650681827E-4</v>
+        <v>1.9020781965480805E-3</v>
       </c>
       <c r="BI22" s="12">
-        <v>1.50683226470098</v>
+        <v>1.5799397502727393</v>
       </c>
       <c r="BJ22" s="12"/>
       <c r="BK22" s="12"/>
       <c r="BL22" s="12">
-        <v>1.147564367734113</v>
+        <v>0.76551838908304204</v>
       </c>
       <c r="BM22" s="12">
-        <v>6.25782227784731E-3</v>
+        <v>3.9674593241551939E-2</v>
       </c>
       <c r="BN22" s="12">
-        <v>0.30914083954491955</v>
+        <v>0.29815613966261278</v>
       </c>
       <c r="BO22" s="12">
-        <v>1.3023163336315738E-2</v>
+        <v>0.16701461377870566</v>
       </c>
       <c r="BP22" s="12">
-        <v>6.9475210439405525E-3</v>
+        <v>3.2421764871722585E-3</v>
       </c>
       <c r="BQ22" s="12">
-        <v>6.095616117943084E-3</v>
+        <v>0.22475812453485489</v>
       </c>
       <c r="BR22" s="12">
-        <v>2.5932341552883632E-2</v>
+        <v>0.14657631954350928</v>
       </c>
       <c r="BS22" s="12">
-        <v>0.1368007397133611</v>
+        <v>0.1401294498381877</v>
       </c>
       <c r="BT22" s="12">
-        <v>0.15608128601759175</v>
+        <v>2.802547770700637E-2</v>
       </c>
       <c r="BU22" s="35">
-        <v>1.1674130730136365E-3</v>
+        <v>3.804156393096161E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:73" ht="17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:73" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="F23" s="10">
-        <v>0.62028383790642061</v>
-      </c>
-      <c r="G23" s="66">
-        <v>0.26802204287222281</v>
-      </c>
-      <c r="H23" s="11"/>
+        <v>0.80524921389779802</v>
+      </c>
+      <c r="G23" s="34">
+        <v>0.84064893748481084</v>
+      </c>
+      <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="13"/>
-      <c r="K23" s="17"/>
+      <c r="K23" s="14"/>
       <c r="L23" s="15"/>
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
       <c r="O23" s="17"/>
-      <c r="P23" s="15"/>
+      <c r="P23" s="16"/>
       <c r="Q23" s="16"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="15"/>
       <c r="T23" s="16"/>
       <c r="U23" s="21"/>
       <c r="V23" s="16"/>
       <c r="W23" s="21"/>
       <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
+      <c r="Y23" s="62"/>
       <c r="Z23" s="15">
-        <v>375</v>
+        <v>207</v>
       </c>
       <c r="AA23" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AB23" s="16">
-        <v>375</v>
+        <v>207</v>
       </c>
       <c r="AC23" s="16">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AD23" s="16"/>
       <c r="AE23" s="15">
-        <v>375</v>
+        <v>143</v>
       </c>
       <c r="AF23" s="16">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AG23" s="18"/>
       <c r="AH23" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="AI23" s="19"/>
-      <c r="AJ23" s="98"/>
-      <c r="AK23" s="102"/>
-      <c r="AL23" s="102"/>
-      <c r="AM23" s="102"/>
-      <c r="AN23" s="102"/>
-      <c r="AO23" s="102"/>
-      <c r="AP23" s="102"/>
-      <c r="AQ23" s="102"/>
-      <c r="AR23" s="102"/>
-      <c r="AS23" s="102"/>
-      <c r="AT23" s="102"/>
-      <c r="AU23" s="102"/>
-      <c r="AV23" s="102"/>
-      <c r="AW23" s="102"/>
-      <c r="AX23" s="102"/>
-      <c r="AY23" s="102"/>
-      <c r="AZ23" s="102"/>
-      <c r="BA23" s="102"/>
-      <c r="BB23" s="102"/>
-      <c r="BC23" s="102"/>
-      <c r="BD23" s="102"/>
-      <c r="BE23" s="102"/>
-      <c r="BF23" s="102"/>
-      <c r="BG23" s="102"/>
-      <c r="BH23" s="102"/>
-      <c r="BI23" s="102"/>
-      <c r="BJ23" s="102"/>
-      <c r="BK23" s="102"/>
-      <c r="BL23" s="102"/>
-      <c r="BM23" s="102"/>
-      <c r="BN23" s="102"/>
-      <c r="BO23" s="102"/>
-      <c r="BP23" s="102"/>
-      <c r="BQ23" s="102"/>
-      <c r="BR23" s="102"/>
-      <c r="BS23" s="102"/>
-      <c r="BT23" s="102"/>
-      <c r="BU23" s="67"/>
+        <v>92</v>
+      </c>
+      <c r="AI23" s="56"/>
+      <c r="AJ23" s="11">
+        <v>68.957142857142856</v>
+      </c>
+      <c r="AK23" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="AL23" s="12">
+        <v>15.760000000000002</v>
+      </c>
+      <c r="AM23" s="12">
+        <v>0.93571428571428583</v>
+      </c>
+      <c r="AN23" s="12">
+        <v>0.49285714285714288</v>
+      </c>
+      <c r="AO23" s="12">
+        <v>0.24571428571428572</v>
+      </c>
+      <c r="AP23" s="12">
+        <v>1.4542857142857142</v>
+      </c>
+      <c r="AQ23" s="12">
+        <v>4.2271428571428578</v>
+      </c>
+      <c r="AR23" s="12">
+        <v>7.3514285714285705</v>
+      </c>
+      <c r="AS23" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AT23" s="12">
+        <v>100.21428571428572</v>
+      </c>
+      <c r="AU23" s="12"/>
+      <c r="AV23" s="12">
+        <v>0.80524921389779802</v>
+      </c>
+      <c r="AW23" s="12">
+        <v>0.84064893748481084</v>
+      </c>
+      <c r="AX23" s="12"/>
+      <c r="AY23" s="12">
+        <v>1.147564367734113</v>
+      </c>
+      <c r="AZ23" s="12">
+        <v>6.25782227784731E-3</v>
+      </c>
+      <c r="BA23" s="12">
+        <v>0.15457041977245978</v>
+      </c>
+      <c r="BB23" s="12">
+        <v>1.3023163336315738E-2</v>
+      </c>
+      <c r="BC23" s="12">
+        <v>6.9475210439405525E-3</v>
+      </c>
+      <c r="BD23" s="12">
+        <v>6.095616117943084E-3</v>
+      </c>
+      <c r="BE23" s="12">
+        <v>2.5932341552883632E-2</v>
+      </c>
+      <c r="BF23" s="12">
+        <v>6.8400369856680548E-2</v>
+      </c>
+      <c r="BG23" s="12">
+        <v>7.8040643008795874E-2</v>
+      </c>
+      <c r="BH23" s="12">
+        <v>5.8370653650681827E-4</v>
+      </c>
+      <c r="BI23" s="12">
+        <v>1.50683226470098</v>
+      </c>
+      <c r="BJ23" s="12"/>
+      <c r="BK23" s="12"/>
+      <c r="BL23" s="12">
+        <v>1.147564367734113</v>
+      </c>
+      <c r="BM23" s="12">
+        <v>6.25782227784731E-3</v>
+      </c>
+      <c r="BN23" s="12">
+        <v>0.30914083954491955</v>
+      </c>
+      <c r="BO23" s="12">
+        <v>1.3023163336315738E-2</v>
+      </c>
+      <c r="BP23" s="12">
+        <v>6.9475210439405525E-3</v>
+      </c>
+      <c r="BQ23" s="12">
+        <v>6.095616117943084E-3</v>
+      </c>
+      <c r="BR23" s="12">
+        <v>2.5932341552883632E-2</v>
+      </c>
+      <c r="BS23" s="12">
+        <v>0.1368007397133611</v>
+      </c>
+      <c r="BT23" s="12">
+        <v>0.15608128601759175</v>
+      </c>
+      <c r="BU23" s="35">
+        <v>1.1674130730136365E-3</v>
+      </c>
     </row>
     <row r="24" spans="1:73" ht="17" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>76</v>
+      <c r="A24" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>143</v>
       </c>
       <c r="F24" s="10">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="G24" s="66">
-        <v>0.50738925282880565</v>
-      </c>
-      <c r="H24" s="11">
-        <v>1.25</v>
-      </c>
-      <c r="I24" s="12">
-        <v>0.05</v>
-      </c>
+        <v>0.62028383790642061</v>
+      </c>
+      <c r="G24" s="34">
+        <v>0.26802204287222281</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
       <c r="J24" s="13"/>
-      <c r="K24" s="17">
-        <v>0.04</v>
-      </c>
-      <c r="L24" s="15">
-        <v>0.95</v>
-      </c>
-      <c r="M24" s="16">
-        <v>0.1</v>
-      </c>
+      <c r="K24" s="14"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="16"/>
       <c r="N24" s="16"/>
-      <c r="O24" s="17">
-        <v>0.10526315789473685</v>
-      </c>
-      <c r="P24" s="15">
-        <v>42</v>
-      </c>
-      <c r="Q24" s="16">
-        <v>2</v>
-      </c>
-      <c r="R24" s="18"/>
-      <c r="S24" s="16"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="15"/>
       <c r="T24" s="16"/>
       <c r="U24" s="21"/>
       <c r="V24" s="16"/>
       <c r="W24" s="21"/>
       <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
+      <c r="Y24" s="62"/>
       <c r="Z24" s="15">
-        <v>180</v>
+        <v>375</v>
       </c>
       <c r="AA24" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AB24" s="16">
-        <v>180</v>
+        <v>375</v>
       </c>
       <c r="AC24" s="16">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AD24" s="16"/>
       <c r="AE24" s="15">
-        <v>190</v>
+        <v>375</v>
       </c>
       <c r="AF24" s="16">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AG24" s="18"/>
       <c r="AH24" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI24" s="19"/>
-      <c r="AJ24" s="11">
-        <v>54.55</v>
-      </c>
-      <c r="AK24" s="12">
-        <v>2.02</v>
-      </c>
-      <c r="AL24" s="12">
-        <v>14.5</v>
-      </c>
-      <c r="AM24" s="12">
-        <v>12.17</v>
-      </c>
-      <c r="AN24" s="12">
-        <v>0.27</v>
-      </c>
-      <c r="AO24" s="12">
-        <v>2.95</v>
-      </c>
-      <c r="AP24" s="12">
-        <v>6.96</v>
-      </c>
-      <c r="AQ24" s="12">
-        <v>3.95</v>
-      </c>
-      <c r="AR24" s="12">
-        <v>1.28</v>
-      </c>
-      <c r="AS24" s="12">
-        <v>1.02</v>
-      </c>
-      <c r="AT24" s="12">
-        <v>99.669999999999987</v>
-      </c>
-      <c r="AU24" s="12"/>
-      <c r="AV24" s="12">
-        <v>0.67841771052078004</v>
-      </c>
-      <c r="AW24" s="12">
-        <v>0.50738925282880565</v>
-      </c>
-      <c r="AX24" s="12"/>
-      <c r="AY24" s="12">
-        <v>0.90780495922782478</v>
-      </c>
-      <c r="AZ24" s="12">
-        <v>2.5281602002503126E-2</v>
-      </c>
-      <c r="BA24" s="12">
-        <v>0.14221263240486468</v>
-      </c>
-      <c r="BB24" s="12">
-        <v>0.16938065414057066</v>
-      </c>
-      <c r="BC24" s="12">
-        <v>3.8060332675500428E-3</v>
-      </c>
-      <c r="BD24" s="12">
-        <v>7.3182833043909698E-2</v>
-      </c>
-      <c r="BE24" s="12">
-        <v>0.12410841654778888</v>
-      </c>
-      <c r="BF24" s="12">
-        <v>6.3915857605177998E-2</v>
-      </c>
-      <c r="BG24" s="12">
-        <v>1.3588110403397028E-2</v>
-      </c>
-      <c r="BH24" s="12">
-        <v>7.1856287425149708E-3</v>
-      </c>
-      <c r="BI24" s="12"/>
-      <c r="BJ24" s="12">
-        <v>1.5232810986435867</v>
-      </c>
-      <c r="BK24" s="12"/>
-      <c r="BL24" s="12">
-        <v>0.90780495922782478</v>
-      </c>
-      <c r="BM24" s="12">
-        <v>2.5281602002503126E-2</v>
-      </c>
-      <c r="BN24" s="12">
-        <v>0.28442526480972935</v>
-      </c>
-      <c r="BO24" s="12">
-        <v>0.16938065414057066</v>
-      </c>
-      <c r="BP24" s="12">
-        <v>3.8060332675500428E-3</v>
-      </c>
-      <c r="BQ24" s="12">
-        <v>7.3182833043909698E-2</v>
-      </c>
-      <c r="BR24" s="12">
-        <v>0.12410841654778888</v>
-      </c>
-      <c r="BS24" s="12">
-        <v>0.127831715210356</v>
-      </c>
-      <c r="BT24" s="12">
-        <v>2.7176220806794056E-2</v>
-      </c>
-      <c r="BU24" s="35">
-        <v>1.4371257485029942E-2</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="AI24" s="56"/>
+      <c r="AJ24" s="98"/>
+      <c r="AK24" s="103"/>
+      <c r="AL24" s="103"/>
+      <c r="AM24" s="103"/>
+      <c r="AN24" s="103"/>
+      <c r="AO24" s="103"/>
+      <c r="AP24" s="103"/>
+      <c r="AQ24" s="103"/>
+      <c r="AR24" s="103"/>
+      <c r="AS24" s="103"/>
+      <c r="AT24" s="103"/>
+      <c r="AU24" s="103"/>
+      <c r="AV24" s="103"/>
+      <c r="AW24" s="103"/>
+      <c r="AX24" s="103"/>
+      <c r="AY24" s="103"/>
+      <c r="AZ24" s="103"/>
+      <c r="BA24" s="103"/>
+      <c r="BB24" s="103"/>
+      <c r="BC24" s="103"/>
+      <c r="BD24" s="103"/>
+      <c r="BE24" s="103"/>
+      <c r="BF24" s="103"/>
+      <c r="BG24" s="103"/>
+      <c r="BH24" s="103"/>
+      <c r="BI24" s="103"/>
+      <c r="BJ24" s="103"/>
+      <c r="BK24" s="103"/>
+      <c r="BL24" s="103"/>
+      <c r="BM24" s="103"/>
+      <c r="BN24" s="103"/>
+      <c r="BO24" s="103"/>
+      <c r="BP24" s="103"/>
+      <c r="BQ24" s="103"/>
+      <c r="BR24" s="103"/>
+      <c r="BS24" s="103"/>
+      <c r="BT24" s="103"/>
+      <c r="BU24" s="67"/>
     </row>
     <row r="25" spans="1:73" ht="17" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>74</v>
+      <c r="A25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>76</v>
       </c>
       <c r="F25" s="10">
-        <v>0.64545647626617619</v>
-      </c>
-      <c r="G25" s="66">
-        <v>0.24463806860177423</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="12"/>
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="G25" s="34">
+        <v>0.50738925282880565</v>
+      </c>
+      <c r="H25" s="12">
+        <v>1.25</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0.05</v>
+      </c>
       <c r="J25" s="13"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="16"/>
+      <c r="K25" s="14">
+        <v>0.04</v>
+      </c>
+      <c r="L25" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="M25" s="16">
+        <v>0.1</v>
+      </c>
       <c r="N25" s="16"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="16">
-        <v>78</v>
-      </c>
+      <c r="O25" s="17">
+        <v>0.10526315789473685</v>
+      </c>
+      <c r="P25" s="16">
+        <v>42</v>
+      </c>
+      <c r="Q25" s="16">
+        <v>2</v>
+      </c>
+      <c r="R25" s="16"/>
+      <c r="S25" s="15"/>
       <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
+      <c r="U25" s="21"/>
       <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="62"/>
       <c r="Z25" s="15">
-        <v>398</v>
+        <v>180</v>
       </c>
       <c r="AA25" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AB25" s="16">
-        <v>398</v>
+        <v>180</v>
       </c>
       <c r="AC25" s="16">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AD25" s="16"/>
       <c r="AE25" s="15">
-        <v>398</v>
+        <v>190</v>
       </c>
       <c r="AF25" s="16">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AG25" s="18"/>
       <c r="AH25" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI25" s="19"/>
+        <v>46</v>
+      </c>
+      <c r="AI25" s="56"/>
       <c r="AJ25" s="11">
-        <v>51.839999999999996</v>
+        <v>54.55</v>
       </c>
       <c r="AK25" s="12">
-        <v>1.2600000000000002</v>
+        <v>2.02</v>
       </c>
       <c r="AL25" s="12">
-        <v>14.331999999999999</v>
+        <v>14.5</v>
       </c>
       <c r="AM25" s="12">
-        <v>9.6419999999999995</v>
+        <v>12.17</v>
       </c>
       <c r="AN25" s="12">
-        <v>0.17400000000000002</v>
+        <v>0.27</v>
       </c>
       <c r="AO25" s="12">
-        <v>7.7799999999999994</v>
+        <v>2.95</v>
       </c>
       <c r="AP25" s="12">
-        <v>11.879999999999999</v>
+        <v>6.96</v>
       </c>
       <c r="AQ25" s="12">
-        <v>2.1199999999999997</v>
+        <v>3.95</v>
       </c>
       <c r="AR25" s="12">
-        <v>0.04</v>
+        <v>1.28</v>
       </c>
       <c r="AS25" s="12">
-        <v>0.11199999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="AT25" s="12">
-        <v>99.179999999999993</v>
+        <v>99.669999999999987</v>
       </c>
       <c r="AU25" s="12"/>
       <c r="AV25" s="12">
-        <v>0.64545647626617619</v>
+        <v>0.67841771052078004</v>
       </c>
       <c r="AW25" s="12">
-        <v>0.24463806860177423</v>
+        <v>0.50738925282880565</v>
       </c>
       <c r="AX25" s="12"/>
       <c r="AY25" s="12">
-        <v>0.86270594108836729</v>
+        <v>0.90780495922782478</v>
       </c>
       <c r="AZ25" s="12">
-        <v>1.576971214017522E-2</v>
+        <v>2.5281602002503126E-2</v>
       </c>
       <c r="BA25" s="12">
-        <v>0.14056492742251864</v>
+        <v>0.14221263240486468</v>
       </c>
       <c r="BB25" s="12">
-        <v>0.13419624217118997</v>
+        <v>0.16938065414057066</v>
       </c>
       <c r="BC25" s="12">
-        <v>2.452776994643361E-3</v>
+        <v>3.8060332675500428E-3</v>
       </c>
       <c r="BD25" s="12">
-        <v>0.1930042173158025</v>
+        <v>7.3182833043909698E-2</v>
       </c>
       <c r="BE25" s="12">
-        <v>0.21184022824536375</v>
+        <v>0.12410841654778888</v>
       </c>
       <c r="BF25" s="12">
-        <v>3.4304207119741095E-2</v>
+        <v>6.3915857605177998E-2</v>
       </c>
       <c r="BG25" s="12">
-        <v>4.2462845010615713E-4</v>
+        <v>1.3588110403397028E-2</v>
       </c>
       <c r="BH25" s="12">
-        <v>7.890102148643889E-4</v>
+        <v>7.1856287425149708E-3</v>
       </c>
       <c r="BI25" s="12"/>
       <c r="BJ25" s="12">
-        <v>1.5952628809479079</v>
+        <v>1.5232810986435867</v>
       </c>
       <c r="BK25" s="12"/>
       <c r="BL25" s="12">
-        <v>0.86270594108836729</v>
+        <v>0.90780495922782478</v>
       </c>
       <c r="BM25" s="12">
-        <v>1.576971214017522E-2</v>
+        <v>2.5281602002503126E-2</v>
       </c>
       <c r="BN25" s="12">
-        <v>0.28112985484503727</v>
+        <v>0.28442526480972935</v>
       </c>
       <c r="BO25" s="12">
-        <v>0.13419624217118997</v>
+        <v>0.16938065414057066</v>
       </c>
       <c r="BP25" s="12">
-        <v>2.452776994643361E-3</v>
+        <v>3.8060332675500428E-3</v>
       </c>
       <c r="BQ25" s="12">
-        <v>0.1930042173158025</v>
+        <v>7.3182833043909698E-2</v>
       </c>
       <c r="BR25" s="12">
-        <v>0.21184022824536375</v>
+        <v>0.12410841654778888</v>
       </c>
       <c r="BS25" s="12">
-        <v>6.8608414239482191E-2</v>
+        <v>0.127831715210356</v>
       </c>
       <c r="BT25" s="12">
-        <v>8.4925690021231425E-4</v>
+        <v>2.7176220806794056E-2</v>
       </c>
       <c r="BU25" s="35">
-        <v>1.5780204297287778E-3</v>
+        <v>1.4371257485029942E-2</v>
       </c>
     </row>
     <row r="26" spans="1:73" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="F26" s="10">
-        <v>0.66378339566542666</v>
-      </c>
-      <c r="G26" s="66">
-        <v>0.27655660483015931</v>
-      </c>
-      <c r="H26" s="15">
-        <v>0.65</v>
-      </c>
-      <c r="I26" s="16">
-        <v>0.08</v>
-      </c>
+        <v>0.64545647626617619</v>
+      </c>
+      <c r="G26" s="34">
+        <v>0.24463806860177423</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
       <c r="J26" s="13"/>
-      <c r="K26" s="17">
-        <v>0.12307692307692307</v>
-      </c>
-      <c r="L26" s="15">
-        <v>0.69</v>
-      </c>
-      <c r="M26" s="16">
-        <v>0.08</v>
-      </c>
+      <c r="K26" s="14"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="16"/>
       <c r="N26" s="16"/>
-      <c r="O26" s="17">
-        <v>0.11594202898550726</v>
-      </c>
-      <c r="P26" s="15"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="16">
-        <v>65</v>
+      <c r="R26" s="16"/>
+      <c r="S26" s="15">
+        <v>78</v>
       </c>
       <c r="T26" s="16"/>
-      <c r="U26" s="21"/>
+      <c r="U26" s="16"/>
       <c r="V26" s="16"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21">
-        <v>2</v>
-      </c>
-      <c r="Y26" s="21"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y26" s="62"/>
       <c r="Z26" s="15">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="AA26" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AB26" s="16">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="AC26" s="16">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="AD26" s="16"/>
       <c r="AE26" s="15">
-        <v>317</v>
+        <v>398</v>
       </c>
       <c r="AF26" s="16">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AG26" s="18"/>
       <c r="AH26" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI26" s="19"/>
+        <v>116</v>
+      </c>
+      <c r="AI26" s="56"/>
       <c r="AJ26" s="11">
-        <v>50.120000000000005</v>
+        <v>51.839999999999996</v>
       </c>
       <c r="AK26" s="12">
-        <v>0.91</v>
+        <v>1.2600000000000002</v>
       </c>
       <c r="AL26" s="12">
-        <v>18.32</v>
+        <v>14.331999999999999</v>
       </c>
       <c r="AM26" s="12">
-        <v>9.36</v>
+        <v>9.6419999999999995</v>
       </c>
       <c r="AN26" s="12">
-        <v>0.17</v>
+        <v>0.17400000000000002</v>
       </c>
       <c r="AO26" s="12">
-        <v>7.01</v>
+        <v>7.7799999999999994</v>
       </c>
       <c r="AP26" s="12">
-        <v>11.344999999999999</v>
+        <v>11.879999999999999</v>
       </c>
       <c r="AQ26" s="12">
-        <v>2.39</v>
+        <v>2.1199999999999997</v>
       </c>
       <c r="AR26" s="12">
-        <v>0.22500000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="AS26" s="12">
-        <v>0.15</v>
+        <v>0.11199999999999999</v>
       </c>
       <c r="AT26" s="12">
-        <v>100</v>
+        <v>99.179999999999993</v>
       </c>
       <c r="AU26" s="12"/>
       <c r="AV26" s="12">
-        <v>0.66378339566542666</v>
+        <v>0.64545647626617619</v>
       </c>
       <c r="AW26" s="12">
-        <v>0.27655660483015931</v>
+        <v>0.24463806860177423</v>
       </c>
       <c r="AX26" s="12"/>
       <c r="AY26" s="12">
-        <v>0.83408221001830585</v>
+        <v>0.86270594108836729</v>
       </c>
       <c r="AZ26" s="12">
-        <v>1.1389236545682102E-2</v>
+        <v>1.576971214017522E-2</v>
       </c>
       <c r="BA26" s="12">
-        <v>0.17967830521773248</v>
+        <v>0.14056492742251864</v>
       </c>
       <c r="BB26" s="12">
-        <v>0.13027139874739041</v>
+        <v>0.13419624217118997</v>
       </c>
       <c r="BC26" s="12">
-        <v>2.3963913166055823E-3</v>
+        <v>2.452776994643361E-3</v>
       </c>
       <c r="BD26" s="12">
-        <v>0.17390225750434135</v>
+        <v>0.1930042173158025</v>
       </c>
       <c r="BE26" s="12">
-        <v>0.20230028530670469</v>
+        <v>0.21184022824536375</v>
       </c>
       <c r="BF26" s="12">
-        <v>3.8673139158576057E-2</v>
+        <v>3.4304207119741095E-2</v>
       </c>
       <c r="BG26" s="12">
-        <v>2.3885350318471337E-3</v>
+        <v>4.2462845010615713E-4</v>
       </c>
       <c r="BH26" s="12">
-        <v>1.0567101091933781E-3</v>
-      </c>
-      <c r="BI26" s="12">
-        <v>1.5761384689563791</v>
-      </c>
-      <c r="BJ26" s="12"/>
+        <v>7.890102148643889E-4</v>
+      </c>
+      <c r="BI26" s="12"/>
+      <c r="BJ26" s="12">
+        <v>1.5952628809479079</v>
+      </c>
       <c r="BK26" s="12"/>
       <c r="BL26" s="12">
-        <v>0.83408221001830585</v>
+        <v>0.86270594108836729</v>
       </c>
       <c r="BM26" s="12">
-        <v>1.1389236545682102E-2</v>
+        <v>1.576971214017522E-2</v>
       </c>
       <c r="BN26" s="12">
-        <v>0.35935661043546496</v>
+        <v>0.28112985484503727</v>
       </c>
       <c r="BO26" s="12">
-        <v>0.13027139874739041</v>
+        <v>0.13419624217118997</v>
       </c>
       <c r="BP26" s="12">
-        <v>2.3963913166055823E-3</v>
+        <v>2.452776994643361E-3</v>
       </c>
       <c r="BQ26" s="12">
-        <v>0.17390225750434135</v>
+        <v>0.1930042173158025</v>
       </c>
       <c r="BR26" s="12">
-        <v>0.20230028530670469</v>
+        <v>0.21184022824536375</v>
       </c>
       <c r="BS26" s="12">
-        <v>7.7346278317152115E-2</v>
+        <v>6.8608414239482191E-2</v>
       </c>
       <c r="BT26" s="12">
-        <v>4.7770700636942673E-3</v>
+        <v>8.4925690021231425E-4</v>
       </c>
       <c r="BU26" s="35">
-        <v>2.1134202183867561E-3</v>
+        <v>1.5780204297287778E-3</v>
       </c>
     </row>
     <row r="27" spans="1:73" ht="17" x14ac:dyDescent="0.25">
@@ -19399,174 +19324,186 @@
         <v>96</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E27" s="37" t="s">
         <v>93</v>
       </c>
       <c r="F27" s="10">
-        <v>0.53206676081954596</v>
-      </c>
-      <c r="G27" s="66">
-        <v>0.36103905373641304</v>
-      </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="12"/>
+        <v>0.66378339566542666</v>
+      </c>
+      <c r="G27" s="34">
+        <v>0.27655660483015931</v>
+      </c>
+      <c r="H27" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="I27" s="16">
+        <v>0.08</v>
+      </c>
       <c r="J27" s="13"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="16"/>
+      <c r="K27" s="14">
+        <v>0.12307692307692307</v>
+      </c>
+      <c r="L27" s="15">
+        <v>0.69</v>
+      </c>
+      <c r="M27" s="16">
+        <v>0.08</v>
+      </c>
       <c r="N27" s="16"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="15"/>
+      <c r="O27" s="17">
+        <v>0.11594202898550726</v>
+      </c>
+      <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="16">
-        <v>57.3</v>
+      <c r="R27" s="16"/>
+      <c r="S27" s="15">
+        <v>65</v>
       </c>
       <c r="T27" s="16"/>
       <c r="U27" s="21"/>
       <c r="V27" s="16"/>
       <c r="W27" s="21"/>
       <c r="X27" s="21">
-        <v>1.8</v>
-      </c>
-      <c r="Y27" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="Y27" s="62"/>
       <c r="Z27" s="15">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="AA27" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AB27" s="16">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="AC27" s="16">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="AD27" s="16"/>
       <c r="AE27" s="15">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="AF27" s="16">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AG27" s="18"/>
       <c r="AH27" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI27" s="19"/>
+        <v>100</v>
+      </c>
+      <c r="AI27" s="56"/>
       <c r="AJ27" s="11">
-        <v>43.64</v>
+        <v>50.120000000000005</v>
       </c>
       <c r="AK27" s="12">
-        <v>2.64</v>
+        <v>0.91</v>
       </c>
       <c r="AL27" s="12">
-        <v>12.65</v>
+        <v>18.32</v>
       </c>
       <c r="AM27" s="12">
-        <v>11.54</v>
+        <v>9.36</v>
       </c>
       <c r="AN27" s="12">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="AO27" s="12">
-        <v>12.07</v>
+        <v>7.01</v>
       </c>
       <c r="AP27" s="12">
-        <v>11.82</v>
+        <v>11.344999999999999</v>
       </c>
       <c r="AQ27" s="12">
-        <v>3.68</v>
+        <v>2.39</v>
       </c>
       <c r="AR27" s="12">
-        <v>1.01</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="AS27" s="12">
-        <v>0.7</v>
+        <v>0.15</v>
       </c>
       <c r="AT27" s="12">
-        <v>99.94</v>
+        <v>100</v>
       </c>
       <c r="AU27" s="12"/>
       <c r="AV27" s="12">
-        <v>0.53206676081954596</v>
+        <v>0.66378339566542666</v>
       </c>
       <c r="AW27" s="12">
-        <v>0.36103905373641304</v>
+        <v>0.27655660483015931</v>
       </c>
       <c r="AX27" s="12"/>
       <c r="AY27" s="12">
-        <v>0.72624396738225994</v>
+        <v>0.83408221001830585</v>
       </c>
       <c r="AZ27" s="12">
-        <v>3.3041301627033788E-2</v>
+        <v>1.1389236545682102E-2</v>
       </c>
       <c r="BA27" s="12">
-        <v>0.12406826206355434</v>
+        <v>0.17967830521773248</v>
       </c>
       <c r="BB27" s="12">
-        <v>0.1606123869171886</v>
+        <v>0.13027139874739041</v>
       </c>
       <c r="BC27" s="12">
-        <v>2.6783197067944743E-3</v>
+        <v>2.3963913166055823E-3</v>
       </c>
       <c r="BD27" s="12">
-        <v>0.29942942197965766</v>
+        <v>0.17390225750434135</v>
       </c>
       <c r="BE27" s="12">
-        <v>0.21077032810271043</v>
+        <v>0.20230028530670469</v>
       </c>
       <c r="BF27" s="12">
-        <v>5.9546925566343049E-2</v>
+        <v>3.8673139158576057E-2</v>
       </c>
       <c r="BG27" s="12">
-        <v>1.0721868365180466E-2</v>
+        <v>2.3885350318471337E-3</v>
       </c>
       <c r="BH27" s="12">
-        <v>4.9313138429024307E-3</v>
-      </c>
-      <c r="BI27" s="12"/>
-      <c r="BJ27" s="12">
-        <v>1.6271127817107227</v>
-      </c>
+        <v>1.0567101091933781E-3</v>
+      </c>
+      <c r="BI27" s="12">
+        <v>1.5761384689563791</v>
+      </c>
+      <c r="BJ27" s="12"/>
       <c r="BK27" s="12"/>
       <c r="BL27" s="12">
-        <v>0.72624396738225994</v>
+        <v>0.83408221001830585</v>
       </c>
       <c r="BM27" s="12">
-        <v>3.3041301627033788E-2</v>
+        <v>1.1389236545682102E-2</v>
       </c>
       <c r="BN27" s="12">
-        <v>0.24813652412710868</v>
+        <v>0.35935661043546496</v>
       </c>
       <c r="BO27" s="12">
-        <v>0.1606123869171886</v>
+        <v>0.13027139874739041</v>
       </c>
       <c r="BP27" s="12">
-        <v>2.6783197067944743E-3</v>
+        <v>2.3963913166055823E-3</v>
       </c>
       <c r="BQ27" s="12">
-        <v>0.29942942197965766</v>
+        <v>0.17390225750434135</v>
       </c>
       <c r="BR27" s="12">
-        <v>0.21077032810271043</v>
+        <v>0.20230028530670469</v>
       </c>
       <c r="BS27" s="12">
-        <v>0.1190938511326861</v>
+        <v>7.7346278317152115E-2</v>
       </c>
       <c r="BT27" s="12">
-        <v>2.1443736730360933E-2</v>
+        <v>4.7770700636942673E-3</v>
       </c>
       <c r="BU27" s="35">
-        <v>9.8626276858048614E-3</v>
+        <v>2.1134202183867561E-3</v>
       </c>
     </row>
     <row r="28" spans="1:73" ht="17" x14ac:dyDescent="0.25">
@@ -19577,7 +19514,7 @@
         <v>95</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D28" s="36" t="s">
         <v>61</v>
@@ -19586,162 +19523,162 @@
         <v>93</v>
       </c>
       <c r="F28" s="10">
-        <v>0.58524831256813492</v>
-      </c>
-      <c r="G28" s="66">
-        <v>0.39124475074304188</v>
-      </c>
-      <c r="H28" s="11"/>
+        <v>0.53206676081954596</v>
+      </c>
+      <c r="G28" s="34">
+        <v>0.36103905373641304</v>
+      </c>
+      <c r="H28" s="12"/>
       <c r="I28" s="12"/>
       <c r="J28" s="13"/>
-      <c r="K28" s="17"/>
+      <c r="K28" s="14"/>
       <c r="L28" s="15"/>
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
       <c r="O28" s="18"/>
-      <c r="P28" s="15"/>
+      <c r="P28" s="16"/>
       <c r="Q28" s="16"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="16">
-        <v>60.5</v>
+      <c r="R28" s="16"/>
+      <c r="S28" s="15">
+        <v>57.3</v>
       </c>
       <c r="T28" s="16"/>
       <c r="U28" s="21"/>
       <c r="V28" s="16"/>
       <c r="W28" s="21"/>
       <c r="X28" s="21">
-        <v>3.3</v>
-      </c>
-      <c r="Y28" s="21"/>
+        <v>1.8</v>
+      </c>
+      <c r="Y28" s="62"/>
       <c r="Z28" s="15">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="AA28" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AB28" s="16">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="AC28" s="16">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AD28" s="16"/>
       <c r="AE28" s="15">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AF28" s="16">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AG28" s="18"/>
       <c r="AH28" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AI28" s="19"/>
+      <c r="AI28" s="56"/>
       <c r="AJ28" s="11">
-        <v>47.3</v>
+        <v>43.64</v>
       </c>
       <c r="AK28" s="12">
-        <v>2.35</v>
+        <v>2.64</v>
       </c>
       <c r="AL28" s="12">
-        <v>14.17</v>
+        <v>12.65</v>
       </c>
       <c r="AM28" s="12">
-        <v>10.82</v>
+        <v>11.54</v>
       </c>
       <c r="AN28" s="12">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="AO28" s="12">
-        <v>10.36</v>
+        <v>12.07</v>
       </c>
       <c r="AP28" s="12">
-        <v>9.94</v>
+        <v>11.82</v>
       </c>
       <c r="AQ28" s="12">
-        <v>3.52</v>
+        <v>3.68</v>
       </c>
       <c r="AR28" s="12">
-        <v>0.83</v>
+        <v>1.01</v>
       </c>
       <c r="AS28" s="12">
-        <v>0.47</v>
+        <v>0.7</v>
       </c>
       <c r="AT28" s="12">
-        <v>99.929999999999993</v>
+        <v>99.94</v>
       </c>
       <c r="AU28" s="12"/>
       <c r="AV28" s="12">
-        <v>0.58524831256813492</v>
+        <v>0.53206676081954596</v>
       </c>
       <c r="AW28" s="12">
-        <v>0.39124475074304188</v>
+        <v>0.36103905373641304</v>
       </c>
       <c r="AX28" s="12"/>
       <c r="AY28" s="12">
-        <v>0.78715260442669321</v>
+        <v>0.72624396738225994</v>
       </c>
       <c r="AZ28" s="12">
-        <v>2.9411764705882353E-2</v>
+        <v>3.3041301627033788E-2</v>
       </c>
       <c r="BA28" s="12">
-        <v>0.13897606904668497</v>
+        <v>0.12406826206355434</v>
       </c>
       <c r="BB28" s="12">
-        <v>0.15059151009046626</v>
+        <v>0.1606123869171886</v>
       </c>
       <c r="BC28" s="12">
-        <v>2.3963913166055823E-3</v>
+        <v>2.6783197067944743E-3</v>
       </c>
       <c r="BD28" s="12">
-        <v>0.25700818655420488</v>
+        <v>0.29942942197965766</v>
       </c>
       <c r="BE28" s="12">
-        <v>0.17724679029957205</v>
+        <v>0.21077032810271043</v>
       </c>
       <c r="BF28" s="12">
-        <v>5.6957928802589E-2</v>
+        <v>5.9546925566343049E-2</v>
       </c>
       <c r="BG28" s="12">
-        <v>8.8110403397027599E-3</v>
+        <v>1.0721868365180466E-2</v>
       </c>
       <c r="BH28" s="12">
-        <v>3.3110250088059178E-3</v>
+        <v>4.9313138429024307E-3</v>
       </c>
       <c r="BI28" s="12"/>
       <c r="BJ28" s="12">
-        <v>1.608552285582401</v>
+        <v>1.6271127817107227</v>
       </c>
       <c r="BK28" s="12"/>
       <c r="BL28" s="12">
-        <v>0.78715260442669321</v>
+        <v>0.72624396738225994</v>
       </c>
       <c r="BM28" s="12">
-        <v>2.9411764705882353E-2</v>
+        <v>3.3041301627033788E-2</v>
       </c>
       <c r="BN28" s="12">
-        <v>0.27795213809336994</v>
+        <v>0.24813652412710868</v>
       </c>
       <c r="BO28" s="12">
-        <v>0.15059151009046626</v>
+        <v>0.1606123869171886</v>
       </c>
       <c r="BP28" s="12">
-        <v>2.3963913166055823E-3</v>
+        <v>2.6783197067944743E-3</v>
       </c>
       <c r="BQ28" s="12">
-        <v>0.25700818655420488</v>
+        <v>0.29942942197965766</v>
       </c>
       <c r="BR28" s="12">
-        <v>0.17724679029957205</v>
+        <v>0.21077032810271043</v>
       </c>
       <c r="BS28" s="12">
-        <v>0.113915857605178</v>
+        <v>0.1190938511326861</v>
       </c>
       <c r="BT28" s="12">
-        <v>1.762208067940552E-2</v>
+        <v>2.1443736730360933E-2</v>
       </c>
       <c r="BU28" s="35">
-        <v>6.6220500176118356E-3</v>
+        <v>9.8626276858048614E-3</v>
       </c>
     </row>
     <row r="29" spans="1:73" ht="17" x14ac:dyDescent="0.25">
@@ -19752,7 +19689,7 @@
         <v>95</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="D29" s="36" t="s">
         <v>61</v>
@@ -19761,158 +19698,162 @@
         <v>93</v>
       </c>
       <c r="F29" s="10">
-        <v>0.62363736213765231</v>
-      </c>
-      <c r="G29" s="66">
-        <v>0.30280441831693838</v>
-      </c>
-      <c r="H29" s="11"/>
+        <v>0.58524831256813492</v>
+      </c>
+      <c r="G29" s="34">
+        <v>0.39124475074304188</v>
+      </c>
+      <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="13"/>
-      <c r="K29" s="17"/>
+      <c r="K29" s="14"/>
       <c r="L29" s="15"/>
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="15"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="16"/>
       <c r="Q29" s="16"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="15">
+        <v>60.5</v>
+      </c>
       <c r="T29" s="16"/>
       <c r="U29" s="21"/>
       <c r="V29" s="16"/>
       <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
+      <c r="X29" s="21">
+        <v>3.3</v>
+      </c>
+      <c r="Y29" s="62"/>
       <c r="Z29" s="15">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="AA29" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AB29" s="16">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="AC29" s="16">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="AD29" s="16"/>
       <c r="AE29" s="15">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="AF29" s="16">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AG29" s="18"/>
       <c r="AH29" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AI29" s="19"/>
+      <c r="AI29" s="56"/>
       <c r="AJ29" s="11">
-        <v>48.88</v>
+        <v>47.3</v>
       </c>
       <c r="AK29" s="12">
-        <v>2.89</v>
+        <v>2.35</v>
       </c>
       <c r="AL29" s="12">
-        <v>14.77</v>
+        <v>14.17</v>
       </c>
       <c r="AM29" s="12">
-        <v>13.05</v>
+        <v>10.82</v>
       </c>
       <c r="AN29" s="12">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AO29" s="12">
-        <v>6.47</v>
+        <v>10.36</v>
       </c>
       <c r="AP29" s="12">
-        <v>10.99</v>
+        <v>9.94</v>
       </c>
       <c r="AQ29" s="12">
-        <v>2.63</v>
+        <v>3.52</v>
       </c>
       <c r="AR29" s="12">
-        <v>0.3</v>
+        <v>0.83</v>
       </c>
       <c r="AS29" s="12">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AT29" s="12">
-        <v>99.97999999999999</v>
+        <v>99.929999999999993</v>
       </c>
       <c r="AU29" s="12"/>
       <c r="AV29" s="12">
-        <v>0.62363736213765231</v>
+        <v>0.58524831256813492</v>
       </c>
       <c r="AW29" s="12">
-        <v>0.30280441831693838</v>
+        <v>0.39124475074304188</v>
       </c>
       <c r="AX29" s="12"/>
       <c r="AY29" s="12">
-        <v>0.81344649692128479</v>
+        <v>0.78715260442669321</v>
       </c>
       <c r="AZ29" s="12">
-        <v>3.6170212765957444E-2</v>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="BA29" s="12">
-        <v>0.14486072969792077</v>
+        <v>0.13897606904668497</v>
       </c>
       <c r="BB29" s="12">
-        <v>0.1816283924843424</v>
+        <v>0.15059151009046626</v>
       </c>
       <c r="BC29" s="12">
-        <v>0</v>
+        <v>2.3963913166055823E-3</v>
       </c>
       <c r="BD29" s="12">
-        <v>0.16050607789630364</v>
+        <v>0.25700818655420488</v>
       </c>
       <c r="BE29" s="12">
-        <v>0.19597004279600572</v>
+        <v>0.17724679029957205</v>
       </c>
       <c r="BF29" s="12">
-        <v>4.2556634304207121E-2</v>
+        <v>5.6957928802589E-2</v>
       </c>
       <c r="BG29" s="12">
-        <v>3.1847133757961781E-3</v>
+        <v>8.8110403397027599E-3</v>
       </c>
       <c r="BH29" s="12">
-        <v>0</v>
+        <v>3.3110250088059178E-3</v>
       </c>
       <c r="BI29" s="12"/>
       <c r="BJ29" s="12">
-        <v>1.5783233002418182</v>
+        <v>1.608552285582401</v>
       </c>
       <c r="BK29" s="12"/>
       <c r="BL29" s="12">
-        <v>0.81344649692128479</v>
+        <v>0.78715260442669321</v>
       </c>
       <c r="BM29" s="12">
-        <v>3.6170212765957444E-2</v>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="BN29" s="12">
-        <v>0.28972145939584154</v>
+        <v>0.27795213809336994</v>
       </c>
       <c r="BO29" s="12">
-        <v>0.1816283924843424</v>
+        <v>0.15059151009046626</v>
       </c>
       <c r="BP29" s="12">
-        <v>0</v>
+        <v>2.3963913166055823E-3</v>
       </c>
       <c r="BQ29" s="12">
-        <v>0.16050607789630364</v>
+        <v>0.25700818655420488</v>
       </c>
       <c r="BR29" s="12">
-        <v>0.19597004279600572</v>
+        <v>0.17724679029957205</v>
       </c>
       <c r="BS29" s="12">
-        <v>8.5113268608414241E-2</v>
+        <v>0.113915857605178</v>
       </c>
       <c r="BT29" s="12">
-        <v>6.3694267515923561E-3</v>
+        <v>1.762208067940552E-2</v>
       </c>
       <c r="BU29" s="35">
-        <v>0</v>
+        <v>6.6220500176118356E-3</v>
       </c>
     </row>
     <row r="30" spans="1:73" ht="17" x14ac:dyDescent="0.25">
@@ -19923,7 +19864,7 @@
         <v>95</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D30" s="36" t="s">
         <v>61</v>
@@ -19932,158 +19873,158 @@
         <v>93</v>
       </c>
       <c r="F30" s="10">
-        <v>0.62560475030354845</v>
-      </c>
-      <c r="G30" s="66">
-        <v>0.36701862247339523</v>
-      </c>
-      <c r="H30" s="11"/>
+        <v>0.62363736213765231</v>
+      </c>
+      <c r="G30" s="34">
+        <v>0.30280441831693838</v>
+      </c>
+      <c r="H30" s="12"/>
       <c r="I30" s="12"/>
       <c r="J30" s="13"/>
-      <c r="K30" s="17"/>
+      <c r="K30" s="14"/>
       <c r="L30" s="15"/>
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
       <c r="O30" s="17"/>
-      <c r="P30" s="15"/>
+      <c r="P30" s="16"/>
       <c r="Q30" s="16"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="15"/>
       <c r="T30" s="16"/>
       <c r="U30" s="21"/>
       <c r="V30" s="16"/>
       <c r="W30" s="21"/>
       <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
+      <c r="Y30" s="62"/>
       <c r="Z30" s="15">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="AA30" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AB30" s="16">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="AC30" s="16">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="AD30" s="16"/>
       <c r="AE30" s="15">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="AF30" s="16">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AG30" s="18"/>
       <c r="AH30" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AI30" s="19"/>
+      <c r="AI30" s="56"/>
       <c r="AJ30" s="11">
-        <v>48.34</v>
+        <v>48.88</v>
       </c>
       <c r="AK30" s="12">
-        <v>1.77</v>
+        <v>2.89</v>
       </c>
       <c r="AL30" s="12">
-        <v>16.399999999999999</v>
+        <v>14.77</v>
       </c>
       <c r="AM30" s="12">
-        <v>10.48</v>
+        <v>13.05</v>
       </c>
       <c r="AN30" s="12">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AO30" s="12">
-        <v>5.97</v>
+        <v>6.47</v>
       </c>
       <c r="AP30" s="12">
-        <v>10.83</v>
+        <v>10.99</v>
       </c>
       <c r="AQ30" s="12">
-        <v>3.46</v>
+        <v>2.63</v>
       </c>
       <c r="AR30" s="12">
-        <v>1.96</v>
+        <v>0.3</v>
       </c>
       <c r="AS30" s="12">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="AT30" s="12">
-        <v>100</v>
+        <v>99.97999999999999</v>
       </c>
       <c r="AU30" s="12"/>
       <c r="AV30" s="12">
-        <v>0.62560475030354845</v>
+        <v>0.62363736213765231</v>
       </c>
       <c r="AW30" s="12">
-        <v>0.36701862247339523</v>
+        <v>0.30280441831693838</v>
       </c>
       <c r="AX30" s="12"/>
       <c r="AY30" s="12">
-        <v>0.80445997670161429</v>
+        <v>0.81344649692128479</v>
       </c>
       <c r="AZ30" s="12">
-        <v>2.2152690863579474E-2</v>
+        <v>3.6170212765957444E-2</v>
       </c>
       <c r="BA30" s="12">
-        <v>0.16084739113377794</v>
+        <v>0.14486072969792077</v>
       </c>
       <c r="BB30" s="12">
-        <v>0.14585942936673627</v>
+        <v>0.1816283924843424</v>
       </c>
       <c r="BC30" s="12">
-        <v>2.8192839018889204E-3</v>
+        <v>0</v>
       </c>
       <c r="BD30" s="12">
-        <v>0.1481022078888613</v>
+        <v>0.16050607789630364</v>
       </c>
       <c r="BE30" s="12">
-        <v>0.19311697574893011</v>
+        <v>0.19597004279600572</v>
       </c>
       <c r="BF30" s="12">
-        <v>5.5987055016181231E-2</v>
+        <v>4.2556634304207121E-2</v>
       </c>
       <c r="BG30" s="12">
-        <v>2.0806794055201697E-2</v>
+        <v>3.1847133757961781E-3</v>
       </c>
       <c r="BH30" s="12">
-        <v>4.1563930961606198E-3</v>
+        <v>0</v>
       </c>
       <c r="BI30" s="12"/>
       <c r="BJ30" s="12">
-        <v>1.5541518046767713</v>
+        <v>1.5783233002418182</v>
       </c>
       <c r="BK30" s="12"/>
       <c r="BL30" s="12">
-        <v>0.80445997670161429</v>
+        <v>0.81344649692128479</v>
       </c>
       <c r="BM30" s="12">
-        <v>2.2152690863579474E-2</v>
+        <v>3.6170212765957444E-2</v>
       </c>
       <c r="BN30" s="12">
-        <v>0.32169478226755588</v>
+        <v>0.28972145939584154</v>
       </c>
       <c r="BO30" s="12">
-        <v>0.14585942936673627</v>
+        <v>0.1816283924843424</v>
       </c>
       <c r="BP30" s="12">
-        <v>2.8192839018889204E-3</v>
+        <v>0</v>
       </c>
       <c r="BQ30" s="12">
-        <v>0.1481022078888613</v>
+        <v>0.16050607789630364</v>
       </c>
       <c r="BR30" s="12">
-        <v>0.19311697574893011</v>
+        <v>0.19597004279600572</v>
       </c>
       <c r="BS30" s="12">
-        <v>0.11197411003236246</v>
+        <v>8.5113268608414241E-2</v>
       </c>
       <c r="BT30" s="12">
-        <v>4.1613588110403395E-2</v>
+        <v>6.3694267515923561E-3</v>
       </c>
       <c r="BU30" s="35">
-        <v>8.3127861923212396E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:73" ht="17" x14ac:dyDescent="0.25">
@@ -20094,7 +20035,7 @@
         <v>95</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D31" s="36" t="s">
         <v>61</v>
@@ -20103,161 +20044,161 @@
         <v>93</v>
       </c>
       <c r="F31" s="10">
-        <v>0.63621395654255564</v>
-      </c>
-      <c r="G31" s="66">
-        <v>0.36694941616020388</v>
-      </c>
-      <c r="H31" s="11"/>
+        <v>0.62560475030354845</v>
+      </c>
+      <c r="G31" s="34">
+        <v>0.36701862247339523</v>
+      </c>
+      <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="13"/>
-      <c r="K31" s="17"/>
+      <c r="K31" s="14"/>
       <c r="L31" s="15"/>
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
-      <c r="P31" s="15"/>
+      <c r="P31" s="16"/>
       <c r="Q31" s="16"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="15"/>
       <c r="T31" s="16"/>
       <c r="U31" s="21"/>
       <c r="V31" s="16"/>
       <c r="W31" s="21"/>
       <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
+      <c r="Y31" s="62"/>
       <c r="Z31" s="15">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="AA31" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AB31" s="16">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="AC31" s="16">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AD31" s="16"/>
       <c r="AE31" s="15">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="AF31" s="16">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AG31" s="18"/>
       <c r="AH31" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AI31" s="19"/>
+      <c r="AI31" s="56"/>
       <c r="AJ31" s="11">
-        <v>49.03</v>
+        <v>48.34</v>
       </c>
       <c r="AK31" s="12">
-        <v>2.76</v>
+        <v>1.77</v>
       </c>
       <c r="AL31" s="12">
-        <v>16.2</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="AM31" s="12">
-        <v>11.9</v>
+        <v>10.48</v>
       </c>
       <c r="AN31" s="12">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="AO31" s="12">
-        <v>5.88</v>
+        <v>5.97</v>
       </c>
       <c r="AP31" s="12">
-        <v>9.8000000000000007</v>
+        <v>10.83</v>
       </c>
       <c r="AQ31" s="12">
-        <v>3.13</v>
+        <v>3.46</v>
       </c>
       <c r="AR31" s="12">
-        <v>1.1200000000000001</v>
+        <v>1.96</v>
       </c>
       <c r="AS31" s="12">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="AT31" s="12">
-        <v>99.99</v>
+        <v>100</v>
       </c>
       <c r="AU31" s="12"/>
       <c r="AV31" s="12">
-        <v>0.63621395654255564</v>
+        <v>0.62560475030354845</v>
       </c>
       <c r="AW31" s="12">
-        <v>0.36694941616020388</v>
+        <v>0.36701862247339523</v>
       </c>
       <c r="AX31" s="12"/>
       <c r="AY31" s="12">
-        <v>0.81594275253785986</v>
+        <v>0.80445997670161429</v>
       </c>
       <c r="AZ31" s="12">
-        <v>3.4543178973717142E-2</v>
+        <v>2.2152690863579474E-2</v>
       </c>
       <c r="BA31" s="12">
-        <v>0.15888583758336602</v>
+        <v>0.16084739113377794</v>
       </c>
       <c r="BB31" s="12">
-        <v>0.16562282533054978</v>
+        <v>0.14585942936673627</v>
       </c>
       <c r="BC31" s="12">
-        <v>2.3963913166055823E-3</v>
+        <v>2.8192839018889204E-3</v>
       </c>
       <c r="BD31" s="12">
-        <v>0.14586951128752171</v>
+        <v>0.1481022078888613</v>
       </c>
       <c r="BE31" s="12">
-        <v>0.1747503566333809</v>
+        <v>0.19311697574893011</v>
       </c>
       <c r="BF31" s="12">
-        <v>5.0647249190938513E-2</v>
+        <v>5.5987055016181231E-2</v>
       </c>
       <c r="BG31" s="12">
-        <v>1.18895966029724E-2</v>
+        <v>2.0806794055201697E-2</v>
       </c>
       <c r="BH31" s="12">
-        <v>0</v>
+        <v>4.1563930961606198E-3</v>
       </c>
       <c r="BI31" s="12"/>
       <c r="BJ31" s="12">
-        <v>1.5605476994569119</v>
+        <v>1.5541518046767713</v>
       </c>
       <c r="BK31" s="12"/>
       <c r="BL31" s="12">
-        <v>0.81594275253785986</v>
+        <v>0.80445997670161429</v>
       </c>
       <c r="BM31" s="12">
-        <v>3.4543178973717142E-2</v>
+        <v>2.2152690863579474E-2</v>
       </c>
       <c r="BN31" s="12">
-        <v>0.31777167516673205</v>
+        <v>0.32169478226755588</v>
       </c>
       <c r="BO31" s="12">
-        <v>0.16562282533054978</v>
+        <v>0.14585942936673627</v>
       </c>
       <c r="BP31" s="12">
-        <v>2.3963913166055823E-3</v>
+        <v>2.8192839018889204E-3</v>
       </c>
       <c r="BQ31" s="12">
-        <v>0.14586951128752171</v>
+        <v>0.1481022078888613</v>
       </c>
       <c r="BR31" s="12">
-        <v>0.1747503566333809</v>
+        <v>0.19311697574893011</v>
       </c>
       <c r="BS31" s="12">
-        <v>0.10129449838187703</v>
+        <v>0.11197411003236246</v>
       </c>
       <c r="BT31" s="12">
-        <v>2.37791932059448E-2</v>
+        <v>4.1613588110403395E-2</v>
       </c>
       <c r="BU31" s="35">
-        <v>0</v>
+        <v>8.3127861923212396E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:73" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:73" ht="17" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>96</v>
       </c>
@@ -20265,7 +20206,7 @@
         <v>95</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D32" s="36" t="s">
         <v>61</v>
@@ -20274,79 +20215,79 @@
         <v>93</v>
       </c>
       <c r="F32" s="10">
-        <v>0.65303565903143468</v>
-      </c>
-      <c r="G32" s="66">
-        <v>0.27545460605486499</v>
-      </c>
-      <c r="H32" s="11"/>
+        <v>0.63621395654255564</v>
+      </c>
+      <c r="G32" s="34">
+        <v>0.36694941616020388</v>
+      </c>
+      <c r="H32" s="12"/>
       <c r="I32" s="12"/>
       <c r="J32" s="13"/>
-      <c r="K32" s="17"/>
+      <c r="K32" s="14"/>
       <c r="L32" s="15"/>
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
       <c r="O32" s="17"/>
-      <c r="P32" s="15"/>
+      <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="15"/>
       <c r="T32" s="16"/>
       <c r="U32" s="21"/>
       <c r="V32" s="16"/>
       <c r="W32" s="21"/>
       <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
+      <c r="Y32" s="62"/>
       <c r="Z32" s="15">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="AA32" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AB32" s="16">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="AC32" s="16">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AD32" s="16"/>
       <c r="AE32" s="15">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="AF32" s="16">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AG32" s="18"/>
       <c r="AH32" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AI32" s="19"/>
+      <c r="AI32" s="56"/>
       <c r="AJ32" s="11">
-        <v>50.69</v>
+        <v>49.03</v>
       </c>
       <c r="AK32" s="12">
-        <v>1.46</v>
+        <v>2.76</v>
       </c>
       <c r="AL32" s="12">
-        <v>16.95</v>
+        <v>16.2</v>
       </c>
       <c r="AM32" s="12">
-        <v>8.51</v>
+        <v>11.9</v>
       </c>
       <c r="AN32" s="12">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="AO32" s="12">
-        <v>7.48</v>
+        <v>5.88</v>
       </c>
       <c r="AP32" s="12">
-        <v>12.03</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AQ32" s="12">
-        <v>2.52</v>
+        <v>3.13</v>
       </c>
       <c r="AR32" s="12">
-        <v>0.22</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="AS32" s="12">
         <v>0</v>
@@ -20356,240 +20297,411 @@
       </c>
       <c r="AU32" s="12"/>
       <c r="AV32" s="12">
-        <v>0.65303565903143468</v>
+        <v>0.63621395654255564</v>
       </c>
       <c r="AW32" s="12">
-        <v>0.27545460605486499</v>
+        <v>0.36694941616020388</v>
       </c>
       <c r="AX32" s="12"/>
       <c r="AY32" s="12">
-        <v>0.8435679813612913</v>
+        <v>0.81594275253785986</v>
       </c>
       <c r="AZ32" s="12">
-        <v>1.8272841051314142E-2</v>
+        <v>3.4543178973717142E-2</v>
       </c>
       <c r="BA32" s="12">
-        <v>0.16624166339741075</v>
+        <v>0.15888583758336602</v>
       </c>
       <c r="BB32" s="12">
-        <v>0.11844119693806542</v>
+        <v>0.16562282533054978</v>
       </c>
       <c r="BC32" s="12">
-        <v>1.8325345362277983E-3</v>
+        <v>2.3963913166055823E-3</v>
       </c>
       <c r="BD32" s="12">
-        <v>0.18556189531133713</v>
+        <v>0.14586951128752171</v>
       </c>
       <c r="BE32" s="12">
-        <v>0.21451497860199714</v>
+        <v>0.1747503566333809</v>
       </c>
       <c r="BF32" s="12">
-        <v>4.0776699029126215E-2</v>
+        <v>5.0647249190938513E-2</v>
       </c>
       <c r="BG32" s="12">
-        <v>2.335456475583864E-3</v>
+        <v>1.18895966029724E-2</v>
       </c>
       <c r="BH32" s="12">
         <v>0</v>
       </c>
       <c r="BI32" s="12"/>
       <c r="BJ32" s="12">
-        <v>1.5915452467023539</v>
+        <v>1.5605476994569119</v>
       </c>
       <c r="BK32" s="12"/>
       <c r="BL32" s="12">
+        <v>0.81594275253785986</v>
+      </c>
+      <c r="BM32" s="12">
+        <v>3.4543178973717142E-2</v>
+      </c>
+      <c r="BN32" s="12">
+        <v>0.31777167516673205</v>
+      </c>
+      <c r="BO32" s="12">
+        <v>0.16562282533054978</v>
+      </c>
+      <c r="BP32" s="12">
+        <v>2.3963913166055823E-3</v>
+      </c>
+      <c r="BQ32" s="12">
+        <v>0.14586951128752171</v>
+      </c>
+      <c r="BR32" s="12">
+        <v>0.1747503566333809</v>
+      </c>
+      <c r="BS32" s="12">
+        <v>0.10129449838187703</v>
+      </c>
+      <c r="BT32" s="12">
+        <v>2.37791932059448E-2</v>
+      </c>
+      <c r="BU32" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:73" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0.65303565903143468</v>
+      </c>
+      <c r="G33" s="34">
+        <v>0.27545460605486499</v>
+      </c>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="15">
+        <v>359</v>
+      </c>
+      <c r="AA33" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB33" s="16">
+        <v>359</v>
+      </c>
+      <c r="AC33" s="16">
+        <v>25</v>
+      </c>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="15">
+        <v>306</v>
+      </c>
+      <c r="AF33" s="16">
+        <v>11</v>
+      </c>
+      <c r="AG33" s="18"/>
+      <c r="AH33" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI33" s="56"/>
+      <c r="AJ33" s="11">
+        <v>50.69</v>
+      </c>
+      <c r="AK33" s="12">
+        <v>1.46</v>
+      </c>
+      <c r="AL33" s="12">
+        <v>16.95</v>
+      </c>
+      <c r="AM33" s="12">
+        <v>8.51</v>
+      </c>
+      <c r="AN33" s="12">
+        <v>0.13</v>
+      </c>
+      <c r="AO33" s="12">
+        <v>7.48</v>
+      </c>
+      <c r="AP33" s="12">
+        <v>12.03</v>
+      </c>
+      <c r="AQ33" s="12">
+        <v>2.52</v>
+      </c>
+      <c r="AR33" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="AS33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="12">
+        <v>99.99</v>
+      </c>
+      <c r="AU33" s="12"/>
+      <c r="AV33" s="12">
+        <v>0.65303565903143468</v>
+      </c>
+      <c r="AW33" s="12">
+        <v>0.27545460605486499</v>
+      </c>
+      <c r="AX33" s="12"/>
+      <c r="AY33" s="12">
         <v>0.8435679813612913</v>
       </c>
-      <c r="BM32" s="12">
+      <c r="AZ33" s="12">
         <v>1.8272841051314142E-2</v>
       </c>
-      <c r="BN32" s="12">
+      <c r="BA33" s="12">
+        <v>0.16624166339741075</v>
+      </c>
+      <c r="BB33" s="12">
+        <v>0.11844119693806542</v>
+      </c>
+      <c r="BC33" s="12">
+        <v>1.8325345362277983E-3</v>
+      </c>
+      <c r="BD33" s="12">
+        <v>0.18556189531133713</v>
+      </c>
+      <c r="BE33" s="12">
+        <v>0.21451497860199714</v>
+      </c>
+      <c r="BF33" s="12">
+        <v>4.0776699029126215E-2</v>
+      </c>
+      <c r="BG33" s="12">
+        <v>2.335456475583864E-3</v>
+      </c>
+      <c r="BH33" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI33" s="12"/>
+      <c r="BJ33" s="12">
+        <v>1.5915452467023539</v>
+      </c>
+      <c r="BK33" s="12"/>
+      <c r="BL33" s="12">
+        <v>0.8435679813612913</v>
+      </c>
+      <c r="BM33" s="12">
+        <v>1.8272841051314142E-2</v>
+      </c>
+      <c r="BN33" s="12">
         <v>0.33248332679482151</v>
       </c>
-      <c r="BO32" s="12">
+      <c r="BO33" s="12">
         <v>0.11844119693806542</v>
       </c>
-      <c r="BP32" s="12">
+      <c r="BP33" s="12">
         <v>1.8325345362277983E-3</v>
       </c>
-      <c r="BQ32" s="12">
+      <c r="BQ33" s="12">
         <v>0.18556189531133713</v>
       </c>
-      <c r="BR32" s="12">
+      <c r="BR33" s="12">
         <v>0.21451497860199714</v>
       </c>
-      <c r="BS32" s="12">
+      <c r="BS33" s="12">
         <v>8.155339805825243E-2</v>
       </c>
-      <c r="BT32" s="12">
+      <c r="BT33" s="12">
         <v>4.6709129511677281E-3</v>
       </c>
-      <c r="BU32" s="35">
+      <c r="BU33" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:73" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="74" t="s">
+    <row r="34" spans="1:73" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="73" t="s">
+      <c r="B34" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="C33" s="72" t="s">
+      <c r="C34" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="72" t="s">
+      <c r="D34" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="71" t="s">
+      <c r="E34" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="51">
+      <c r="F34" s="51">
         <v>0.54093998787268649</v>
       </c>
-      <c r="G33" s="70">
+      <c r="G34" s="50">
         <v>0.28825402128623334</v>
       </c>
-      <c r="H33" s="69"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="105"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="68"/>
-      <c r="V33" s="44"/>
-      <c r="W33" s="68"/>
-      <c r="X33" s="68"/>
-      <c r="Y33" s="68"/>
-      <c r="Z33" s="45">
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="106"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="68"/>
+      <c r="V34" s="44"/>
+      <c r="W34" s="68"/>
+      <c r="X34" s="68"/>
+      <c r="Y34" s="99"/>
+      <c r="Z34" s="45">
         <v>355</v>
       </c>
-      <c r="AA33" s="99" t="s">
+      <c r="AA34" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="AB33" s="44">
+      <c r="AB34" s="44">
         <v>355</v>
       </c>
-      <c r="AC33" s="44"/>
-      <c r="AD33" s="44"/>
-      <c r="AE33" s="45">
+      <c r="AC34" s="44"/>
+      <c r="AD34" s="44"/>
+      <c r="AE34" s="45">
         <v>355</v>
       </c>
-      <c r="AF33" s="44"/>
-      <c r="AG33" s="46"/>
-      <c r="AH33" s="43"/>
-      <c r="AI33" s="43"/>
-      <c r="AJ33" s="69">
+      <c r="AF34" s="44"/>
+      <c r="AG34" s="46"/>
+      <c r="AH34" s="43"/>
+      <c r="AI34" s="42"/>
+      <c r="AJ34" s="69">
         <v>44.11</v>
       </c>
-      <c r="AK33" s="41">
+      <c r="AK34" s="41">
         <v>2.69</v>
       </c>
-      <c r="AL33" s="41">
+      <c r="AL34" s="41">
         <v>12.8</v>
       </c>
-      <c r="AM33" s="41">
+      <c r="AM34" s="41">
         <v>9.31</v>
       </c>
-      <c r="AN33" s="41">
+      <c r="AN34" s="41">
         <v>0.19</v>
       </c>
-      <c r="AO33" s="41">
+      <c r="AO34" s="41">
         <v>9.14</v>
       </c>
-      <c r="AP33" s="41">
+      <c r="AP34" s="41">
         <v>14.34</v>
       </c>
-      <c r="AQ33" s="41">
+      <c r="AQ34" s="41">
         <v>3.2</v>
       </c>
-      <c r="AR33" s="41">
+      <c r="AR34" s="41">
         <v>3.45</v>
       </c>
-      <c r="AS33" s="41">
+      <c r="AS34" s="41">
         <v>0.77</v>
       </c>
-      <c r="AT33" s="41">
+      <c r="AT34" s="41">
         <v>100</v>
       </c>
-      <c r="AU33" s="41"/>
-      <c r="AV33" s="41">
+      <c r="AU34" s="41"/>
+      <c r="AV34" s="41">
         <v>0.54093998787268649</v>
       </c>
-      <c r="AW33" s="41">
+      <c r="AW34" s="41">
         <v>0.28825402128623334</v>
       </c>
-      <c r="AX33" s="41"/>
-      <c r="AY33" s="41">
+      <c r="AX34" s="41"/>
+      <c r="AY34" s="41">
         <v>0.73406556831419534</v>
       </c>
-      <c r="AZ33" s="41">
+      <c r="AZ34" s="41">
         <v>3.3667083854818522E-2</v>
       </c>
-      <c r="BA33" s="41">
+      <c r="BA34" s="41">
         <v>0.1255394272263633</v>
       </c>
-      <c r="BB33" s="41">
+      <c r="BB34" s="41">
         <v>0.12957550452331248</v>
       </c>
-      <c r="BC33" s="41">
+      <c r="BC34" s="41">
         <v>2.6783197067944743E-3</v>
       </c>
-      <c r="BD33" s="41">
+      <c r="BD34" s="41">
         <v>0.22674274373604564</v>
       </c>
-      <c r="BE33" s="41">
+      <c r="BE34" s="41">
         <v>0.25570613409415122</v>
       </c>
-      <c r="BF33" s="41">
+      <c r="BF34" s="41">
         <v>5.1779935275080909E-2</v>
       </c>
-      <c r="BG33" s="41">
+      <c r="BG34" s="41">
         <v>3.662420382165605E-2</v>
       </c>
-      <c r="BH33" s="41">
+      <c r="BH34" s="41">
         <v>5.4244452271926744E-3</v>
       </c>
-      <c r="BI33" s="41"/>
-      <c r="BJ33" s="41">
+      <c r="BI34" s="41"/>
+      <c r="BJ34" s="41">
         <v>1.5963789205524179</v>
       </c>
-      <c r="BK33" s="41"/>
-      <c r="BL33" s="41">
+      <c r="BK34" s="41"/>
+      <c r="BL34" s="41">
         <v>0.73406556831419534</v>
       </c>
-      <c r="BM33" s="41">
+      <c r="BM34" s="41">
         <v>3.3667083854818522E-2</v>
       </c>
-      <c r="BN33" s="41">
+      <c r="BN34" s="41">
         <v>0.2510788544527266</v>
       </c>
-      <c r="BO33" s="41">
+      <c r="BO34" s="41">
         <v>0.12957550452331248</v>
       </c>
-      <c r="BP33" s="41">
+      <c r="BP34" s="41">
         <v>2.6783197067944743E-3</v>
       </c>
-      <c r="BQ33" s="41">
+      <c r="BQ34" s="41">
         <v>0.22674274373604564</v>
       </c>
-      <c r="BR33" s="41">
+      <c r="BR34" s="41">
         <v>0.25570613409415122</v>
       </c>
-      <c r="BS33" s="41">
+      <c r="BS34" s="41">
         <v>0.10355987055016182</v>
       </c>
-      <c r="BT33" s="41">
+      <c r="BT34" s="41">
         <v>7.32484076433121E-2</v>
       </c>
-      <c r="BU33" s="40">
+      <c r="BU34" s="40">
         <v>1.0848890454385349E-2</v>
       </c>
     </row>
